--- a/result/Supplementary Table S1.xlsx
+++ b/result/Supplementary Table S1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>ThermoNet</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>RNCMPT00001</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
   <si>
     <t>RNCMPT00002</t>
@@ -818,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -829,6 +826,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -844,13 +844,13 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,13 +882,13 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1"/>
@@ -913,27 +913,27 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>0.75087251226527</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>0.505110611</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0.6786</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>0.6786</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="F2" s="9">
+        <v>0.621423129090522</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -953,27 +953,27 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
         <v>0.792400121719742</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>0.596717168</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0.785182</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0.785182</v>
       </c>
       <c r="F3" s="9">
         <v>0.715135787086</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -994,26 +994,26 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
         <v>0.720111403700777</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>0.304153641</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>0.519499</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>0.519499</v>
       </c>
       <c r="F4" s="9">
         <v>0.224263085471</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1033,27 +1033,27 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
         <v>0.795179102397104</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>0.603243367</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>0.732225</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>0.732225</v>
       </c>
       <c r="F5" s="9">
         <v>0.517748578478</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1073,27 +1073,27 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7">
         <v>0.802873061471153</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>0.540813939</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>0.728175</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>0.728175</v>
       </c>
       <c r="F6" s="9">
         <v>0.644822040097</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1113,27 +1113,27 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
         <v>0.803261017822483</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>0.350383221</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>0.701507</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>0.701507</v>
       </c>
       <c r="F7" s="9">
         <v>0.428055133099</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1153,27 +1153,27 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
         <v>0.781762694542231</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>0.466487116</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>0.687514</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>0.687514</v>
       </c>
       <c r="F8" s="9">
         <v>0.450026635326</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1193,27 +1193,27 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7">
         <v>0.738146558843356</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>0.583216503</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>0.702047</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>0.702047</v>
       </c>
       <c r="F9" s="9">
         <v>0.636604271136</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1234,26 +1234,26 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
         <v>0.520044939488084</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>0.386894859</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>0.463021</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>0.463021</v>
       </c>
       <c r="F10" s="9">
         <v>0.413468590381</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1273,27 +1273,27 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7">
         <v>0.739643955637557</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>0.478206362</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>0.670261</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>0.670261</v>
       </c>
       <c r="F11" s="9">
         <v>0.596899495548</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1314,26 +1314,26 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7">
         <v>0.479385081208861</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>0.278841578</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>0.500253</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>0.500253</v>
       </c>
       <c r="F12" s="9">
         <v>0.191358877838</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1354,26 +1354,26 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7">
         <v>0.517143203824587</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>0.320053158</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>0.464998</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>0.464998</v>
       </c>
       <c r="F13" s="9">
         <v>0.335719221739</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1393,27 +1393,27 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.390486781980764</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>0.294452455</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>0.35553</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>0.35553</v>
       </c>
       <c r="F14" s="9">
         <v>0.464700122273</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1433,27 +1433,27 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7">
         <v>0.780450329967218</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>0.500298687</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>0.730576</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>0.730576</v>
       </c>
       <c r="F15" s="9">
         <v>0.557757849174</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1473,27 +1473,27 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7">
         <v>0.60091369925187</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>0.409348994</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>0.532297</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>0.532297</v>
       </c>
       <c r="F16" s="9">
         <v>0.456277293602</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1513,27 +1513,27 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7">
         <v>0.78709141008321</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>0.604781963</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>0.737563</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>0.737563</v>
       </c>
       <c r="F17" s="9">
         <v>0.692846193443</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1553,27 +1553,27 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7">
         <v>0.674387129691636</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>0.566662932</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>0.693283</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>0.693283</v>
       </c>
       <c r="F18" s="9">
         <v>0.458803111501</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1593,27 +1593,27 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7">
         <v>0.651623649323446</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>0.493136013</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <v>0.606653</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>0.606653</v>
       </c>
       <c r="F19" s="9">
         <v>0.476478017079</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1633,27 +1633,27 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7">
         <v>0.790505897022083</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>0.375219129</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <v>0.691536</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>0.691536</v>
       </c>
       <c r="F20" s="9">
         <v>0.54167727228</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1673,27 +1673,27 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7">
         <v>0.467425160421815</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>0.40027657</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>0.432232</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>0.432232</v>
       </c>
       <c r="F21" s="9">
         <v>0.410552143103</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1713,27 +1713,27 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="7">
         <v>0.69345817152706</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>0.50333212</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <v>0.636269</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="8">
         <v>0.636269</v>
       </c>
       <c r="F22" s="9">
         <v>0.571100925403</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1753,27 +1753,27 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7">
         <v>0.819896298557257</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>0.682556586</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>0.767631</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>0.767631</v>
       </c>
       <c r="F23" s="9">
         <v>0.510290308919</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1793,27 +1793,27 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="7">
         <v>0.815460641420373</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>0.651745143</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>0.747764</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>0.747764</v>
       </c>
       <c r="F24" s="9">
         <v>0.695630747365</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1833,27 +1833,27 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="6">
+      <c r="A25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="7">
         <v>0.729800672115082</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>0.642287588</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <v>0.714617</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <v>0.714617</v>
       </c>
       <c r="F25" s="9">
         <v>0.67848111272</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1873,27 +1873,27 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7">
         <v>0.728952293771367</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>0.473892174</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>0.663743</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>0.663743</v>
       </c>
       <c r="F26" s="9">
         <v>0.513896064316</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1913,27 +1913,27 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7">
         <v>0.673583737456374</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>0.549716822</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="8">
         <v>0.624629</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>0.624629</v>
       </c>
       <c r="F27" s="9">
         <v>0.517596763591</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1953,27 +1953,27 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="7">
         <v>0.777363340516815</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>0.58953598</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <v>0.712196</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>0.712196</v>
       </c>
       <c r="F28" s="9">
         <v>0.61407669777</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1993,27 +1993,27 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7">
         <v>0.766037317234174</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>0.364261714</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>0.628356</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <v>0.628356</v>
       </c>
       <c r="F29" s="9">
         <v>0.381673179841</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2033,27 +2033,27 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="7">
         <v>0.769180311483407</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>0.494290974</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <v>0.655531</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>0.655531</v>
       </c>
       <c r="F30" s="9">
         <v>0.422802936148</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2073,27 +2073,27 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="6">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="7">
         <v>0.764766833191986</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>0.286674017</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>0.567272</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <v>0.567272</v>
       </c>
       <c r="F31" s="9">
         <v>0.430778079626</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2113,27 +2113,27 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="7">
         <v>0.79672084215904</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>0.456989507</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>0.668182</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <v>0.668182</v>
       </c>
       <c r="F32" s="9">
         <v>0.508470086012</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2153,27 +2153,27 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="6">
+      <c r="A33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="7">
         <v>0.790195793992297</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>0.584430928</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="8">
         <v>0.710319</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="8">
         <v>0.710319</v>
       </c>
       <c r="F33" s="9">
         <v>0.651000927396</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2193,27 +2193,27 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="A34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="7">
         <v>0.746416552149675</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <v>0.502705832</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="8">
         <v>0.675455</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="8">
         <v>0.675455</v>
       </c>
       <c r="F34" s="9">
         <v>0.612280609463</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2233,27 +2233,27 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="6">
+      <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="7">
         <v>0.491076683614552</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <v>0.273650995</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="8">
         <v>0.501958</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <v>0.501958</v>
       </c>
       <c r="F35" s="9">
         <v>0.256741461603</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2273,27 +2273,27 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="6">
+      <c r="A36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="7">
         <v>0.747479073108314</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <v>0.50594601</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="8">
         <v>0.681329</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <v>0.681329</v>
       </c>
       <c r="F36" s="9">
         <v>0.59308479524</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2313,27 +2313,27 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="6">
+      <c r="A37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="7">
         <v>0.772924034610898</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <v>0.566638772</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <v>0.71216</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <v>0.71216</v>
       </c>
       <c r="F37" s="9">
         <v>0.637205306152</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2353,27 +2353,27 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="6">
+      <c r="A38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="7">
         <v>0.492595841767397</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <v>0.317224404</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="8">
         <v>0.452082</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <v>0.452082</v>
       </c>
       <c r="F38" s="9">
         <v>0.333092403186</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2393,27 +2393,27 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="6">
+      <c r="A39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="7">
         <v>0.367697528208718</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8">
         <v>0.23344758</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="8">
         <v>0.410717</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="8">
         <v>0.410717</v>
       </c>
       <c r="F39" s="9">
         <v>0.232402098481</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2433,27 +2433,27 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="6">
+      <c r="A40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="7">
         <v>0.795357150724291</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="8">
         <v>0.466045081</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <v>0.681324</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <v>0.681324</v>
       </c>
       <c r="F40" s="9">
         <v>0.557937543212</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2473,27 +2473,27 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="6">
+      <c r="A41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="7">
         <v>0.786892442660764</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <v>0.562383297</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="8">
         <v>0.698006</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <v>0.698006</v>
       </c>
       <c r="F41" s="9">
         <v>0.64868500223</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2514,26 +2514,26 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="6">
+        <v>45</v>
+      </c>
+      <c r="B42" s="7">
         <v>0.172867092762172</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <v>0.151049663</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="8">
         <v>0.149438</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="8">
         <v>0.149438</v>
       </c>
       <c r="F42" s="9">
         <v>0.130863823471</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2553,27 +2553,27 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="6">
+      <c r="A43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="7">
         <v>0.811423593435692</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <v>0.578286996</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="8">
         <v>0.755179</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="8">
         <v>0.755179</v>
       </c>
       <c r="F43" s="9">
         <v>0.678896633845</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2593,27 +2593,27 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="6">
+      <c r="A44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="7">
         <v>0.217996492409476</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>0.181793856</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="8">
         <v>0.205028</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="8">
         <v>0.205028</v>
       </c>
       <c r="F44" s="9">
         <v>0.208630601167</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2633,27 +2633,27 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="6">
+      <c r="A45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="7">
         <v>0.651527005750767</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>0.435634889</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="8">
         <v>0.588066</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>0.588066</v>
       </c>
       <c r="F45" s="9">
         <v>0.522342017516</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2673,27 +2673,27 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="6">
+      <c r="A46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="7">
         <v>0.566275653812611</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <v>0.20268074</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="8">
         <v>0.520082</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="8">
         <v>0.520082</v>
       </c>
       <c r="F46" s="9">
         <v>0.385400287002</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2713,27 +2713,27 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="6">
+      <c r="A47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="7">
         <v>0.0857010208847777</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>0.049001425</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="8">
         <v>0.0684803</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="8">
         <v>0.0684803</v>
       </c>
       <c r="F47" s="9">
         <v>0.052398372878</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2753,27 +2753,27 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="6">
+      <c r="A48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="7">
         <v>0.777617020761472</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <v>0.61326536</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="8">
         <v>0.705243</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="8">
         <v>0.705243</v>
       </c>
       <c r="F48" s="9">
         <v>0.660194937222</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2793,27 +2793,27 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="6">
+      <c r="A49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="7">
         <v>0.791378371431973</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <v>0.617169555</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="8">
         <v>0.730094</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="8">
         <v>0.730094</v>
       </c>
       <c r="F49" s="9">
         <v>0.683651399967</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2833,27 +2833,27 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="6">
+      <c r="A50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="7">
         <v>0.277333348866354</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="8">
         <v>0.21729347</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="8">
         <v>0.303029</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="8">
         <v>0.303029</v>
       </c>
       <c r="F50" s="9">
         <v>0.135694987312</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2873,27 +2873,27 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="6">
+      <c r="A51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="7">
         <v>0.794455304667552</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="8">
         <v>0.44799592</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="8">
         <v>0.701247</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="8">
         <v>0.701247</v>
       </c>
       <c r="F51" s="9">
         <v>0.593239003677</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2913,27 +2913,27 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="6">
+      <c r="A52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="7">
         <v>0.800672993875594</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="8">
         <v>0.574450682</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="8">
         <v>0.752589</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="8">
         <v>0.752589</v>
       </c>
       <c r="F52" s="9">
         <v>0.662239257684</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2953,27 +2953,27 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="6">
+      <c r="A53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="7">
         <v>0.750632559574396</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="8">
         <v>0.517964225</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="8">
         <v>0.678126</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="8">
         <v>0.678126</v>
       </c>
       <c r="F53" s="9">
         <v>-1.46972411371E-18</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2993,27 +2993,27 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="6">
+      <c r="A54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="7">
         <v>0.667154792431249</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="8">
         <v>0.562832501</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="8">
         <v>0.625802</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="8">
         <v>0.625802</v>
       </c>
       <c r="F54" s="9">
         <v>0.586820481614</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3033,27 +3033,27 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="6">
+      <c r="A55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="7">
         <v>0.492550197994182</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="8">
         <v>0.361243911</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="8">
         <v>0.444017</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="8">
         <v>0.444017</v>
       </c>
       <c r="F55" s="9">
         <v>0.402413338733</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3073,27 +3073,27 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="6">
+      <c r="A56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="7">
         <v>0.749598578673606</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="8">
         <v>0.5025523</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="8">
         <v>0.673783</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="8">
         <v>0.673783</v>
       </c>
       <c r="F56" s="9">
         <v>0.596462000669</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3113,27 +3113,27 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="6">
+      <c r="A57" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="7">
         <v>0.71175155745847</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="8">
         <v>0.559248719</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="8">
         <v>0.652925</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="8">
         <v>0.652925</v>
       </c>
       <c r="F57" s="9">
         <v>0.601876025101</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -3153,27 +3153,27 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="6">
+      <c r="A58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="7">
         <v>0.695979933070061</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="8">
         <v>0.49456341</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="8">
         <v>0.621434</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="8">
         <v>0.621434</v>
       </c>
       <c r="F58" s="9">
         <v>0.566658050923</v>
       </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3193,27 +3193,27 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="6">
+      <c r="A59" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="7">
         <v>0.529928167963086</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="8">
         <v>0.441560203</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="8">
         <v>0.514583</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="8">
         <v>0.514583</v>
       </c>
       <c r="F59" s="9">
         <v>0.504008578332</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3233,27 +3233,27 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="6">
+      <c r="A60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="7">
         <v>0.696711405327091</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <v>0.530676688</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="8">
         <v>0.635836</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="8">
         <v>0.635836</v>
       </c>
       <c r="F60" s="9">
         <v>0.480917042643</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -3273,27 +3273,27 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="6">
+      <c r="A61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="7">
         <v>0.741582103423318</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="8">
         <v>0.562473796</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="8">
         <v>0.675534</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="8">
         <v>0.675534</v>
       </c>
       <c r="F61" s="9">
         <v>0.598157434852</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -3313,27 +3313,27 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="6">
+      <c r="A62" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="7">
         <v>0.347353986507683</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <v>0.256102304</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="8">
         <v>0.328403</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="8">
         <v>0.328403</v>
       </c>
       <c r="F62" s="9">
         <v>0.254679076481</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3353,27 +3353,27 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="6">
+      <c r="A63" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="7">
         <v>0.634664769418861</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <v>0.402059628</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="8">
         <v>0.587247</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="8">
         <v>0.587247</v>
       </c>
       <c r="F63" s="9">
         <v>0.418792013821</v>
       </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -3393,27 +3393,27 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="6">
+      <c r="A64" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="7">
         <v>0.218570165602189</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <v>0.134645216</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="8">
         <v>0.219341</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="8">
         <v>0.219341</v>
       </c>
       <c r="F64" s="9">
         <v>1.6401160347E-4</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3433,27 +3433,27 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="6">
+      <c r="A65" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="7">
         <v>0.811813844368984</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="8">
         <v>0.460125541</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="8">
         <v>0.651457</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="8">
         <v>0.651457</v>
       </c>
       <c r="F65" s="9">
         <v>0.531799263431</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3473,27 +3473,27 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="6">
+      <c r="A66" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="7">
         <v>0.576439324841961</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="8">
         <v>0.453061925</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="8">
         <v>0.531703</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="8">
         <v>0.531703</v>
       </c>
       <c r="F66" s="9">
         <v>0.487833214978</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3513,27 +3513,27 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="6">
+      <c r="A67" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="7">
         <v>0.771439871320438</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <v>0.508970741</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="8">
         <v>0.690527</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="8">
         <v>0.690527</v>
       </c>
       <c r="F67" s="9">
         <v>0.600567765343</v>
       </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -3553,27 +3553,27 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="6">
+      <c r="A68" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="7">
         <v>0.814949664627906</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="8">
         <v>0.502876326</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="8">
         <v>0.713824</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="8">
         <v>0.713824</v>
       </c>
       <c r="F68" s="9">
         <v>0.649903015135</v>
       </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3593,27 +3593,27 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="6">
+      <c r="A69" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="7">
         <v>0.678302403896555</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="8">
         <v>0.475316554</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="8">
         <v>0.62568</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="8">
         <v>0.62568</v>
       </c>
       <c r="F69" s="9">
         <v>0.572069898522</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3633,27 +3633,27 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="6">
+      <c r="A70" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="7">
         <v>0.812032253446614</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="8">
         <v>0.631385883</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="8">
         <v>0.757116</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="8">
         <v>0.757116</v>
       </c>
       <c r="F70" s="9">
         <v>0.670514318243</v>
       </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3673,27 +3673,27 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="6">
+      <c r="A71" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="7">
         <v>0.805370835616058</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="8">
         <v>0.634050221</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="8">
         <v>0.740824</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="8">
         <v>0.740824</v>
       </c>
       <c r="F71" s="9">
         <v>0.678062124779</v>
       </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3713,27 +3713,27 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="6">
+      <c r="A72" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="7">
         <v>0.720108445202826</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="8">
         <v>0.5777038</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="8">
         <v>0.683572</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="8">
         <v>0.683572</v>
       </c>
       <c r="F72" s="9">
         <v>0.626174005592</v>
       </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -3753,27 +3753,27 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="6">
+      <c r="A73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="7">
         <v>0.50264859880639</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="8">
         <v>0.326983155</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="8">
         <v>0.452385</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="8">
         <v>0.452385</v>
       </c>
       <c r="F73" s="9">
         <v>0.397952928788</v>
       </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -3793,27 +3793,27 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="6">
+      <c r="A74" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="7">
         <v>0.810069944961705</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="8">
         <v>0.602950524</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="8">
         <v>0.733877</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="8">
         <v>0.733877</v>
       </c>
       <c r="F74" s="9">
         <v>0.698064804644</v>
       </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -3833,27 +3833,27 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="6">
+      <c r="A75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="7">
         <v>0.806971237094613</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="8">
         <v>0.625129258</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="8">
         <v>0.750755</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="8">
         <v>0.750755</v>
       </c>
       <c r="F75" s="9">
         <v>0.695925665887</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -3873,27 +3873,27 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="6">
+      <c r="A76" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="7">
         <v>0.791308752326969</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="8">
         <v>0.559075966</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="8">
         <v>0.716361</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="8">
         <v>0.716361</v>
       </c>
       <c r="F76" s="9">
         <v>0.630345189983</v>
       </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -3913,27 +3913,27 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="6">
+      <c r="A77" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="7">
         <v>0.725520684456803</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="8">
         <v>0.522621366</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="8">
         <v>0.660327</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="8">
         <v>0.660327</v>
       </c>
       <c r="F77" s="9">
         <v>0.605685288731</v>
       </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -3953,27 +3953,27 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="6">
+      <c r="A78" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="7">
         <v>0.730729487182706</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="8">
         <v>0.429452187</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="8">
         <v>0.651149</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="8">
         <v>0.651149</v>
       </c>
       <c r="F78" s="9">
         <v>0.508415725543</v>
       </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3993,27 +3993,27 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="6">
+      <c r="A79" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="7">
         <v>0.474770224012998</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="8">
         <v>0.372498754</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="8">
         <v>0.49789</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="8">
         <v>0.49789</v>
       </c>
       <c r="F79" s="9">
         <v>0.355656629146</v>
       </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -4033,27 +4033,27 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="6">
+      <c r="A80" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="7">
         <v>0.795617057291374</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="8">
         <v>0.563321302</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="8">
         <v>0.726495</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="8">
         <v>0.726495</v>
       </c>
       <c r="F80" s="9">
         <v>0.648807518487</v>
       </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -4073,27 +4073,27 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="6">
+      <c r="A81" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="7">
         <v>0.345446401518751</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="8">
         <v>0.105624293</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="8">
         <v>0.308898</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="8">
         <v>0.308898</v>
       </c>
       <c r="F81" s="9">
         <v>0.231715152625</v>
       </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -4113,27 +4113,27 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="6">
+      <c r="A82" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="7">
         <v>0.727922938836012</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="8">
         <v>0.315704707</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="8">
         <v>0.597933</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="8">
         <v>0.597933</v>
       </c>
       <c r="F82" s="9">
         <v>0.541700078652</v>
       </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -4153,27 +4153,27 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="6">
+      <c r="A83" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="7">
         <v>0.41143668600191</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="8">
         <v>0.277509516</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="8">
         <v>0.350235</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="8">
         <v>0.350235</v>
       </c>
       <c r="F83" s="9">
         <v>0.31185691041</v>
       </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -4193,27 +4193,27 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="6">
+      <c r="A84" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="7">
         <v>0.539160518616675</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="8">
         <v>0.375348606</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="8">
         <v>0.471415</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="8">
         <v>0.471415</v>
       </c>
       <c r="F84" s="9">
         <v>0.421539312521</v>
       </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -4233,27 +4233,27 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" s="6">
+      <c r="A85" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="7">
         <v>0.329541126680646</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="8">
         <v>0.283393334</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="8">
         <v>0.311244</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="8">
         <v>0.311244</v>
       </c>
       <c r="F85" s="9">
         <v>0.312669226482</v>
       </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -4273,27 +4273,27 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="6">
+      <c r="A86" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="7">
         <v>0.81300126242411</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="8">
         <v>0.49782358</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="8">
         <v>0.723555</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="8">
         <v>0.723555</v>
       </c>
       <c r="F86" s="9">
         <v>0.608337341656</v>
       </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -4313,27 +4313,27 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87">
-      <c r="A87" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="6">
+      <c r="A87" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="7">
         <v>0.772012644144392</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="8">
         <v>0.351467627</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="8">
         <v>0.617857</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="8">
         <v>0.617857</v>
       </c>
       <c r="F87" s="9">
         <v>0.495174323683</v>
       </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -4353,27 +4353,27 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="6">
+      <c r="A88" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="7">
         <v>0.640714240485745</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="8">
         <v>0.334918224</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="8">
         <v>0.588377</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="8">
         <v>0.588377</v>
       </c>
       <c r="F88" s="9">
         <v>0.329287213634</v>
       </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -4393,27 +4393,27 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="6">
+      <c r="A89" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="7">
         <v>0.421921205688561</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="8">
         <v>0.343134641</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="8">
         <v>0.493471</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="8">
         <v>0.493471</v>
       </c>
       <c r="F89" s="9">
         <v>0.382098408099</v>
       </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -4433,27 +4433,27 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" s="6">
+      <c r="A90" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="7">
         <v>0.708275263490584</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="8">
         <v>0.46962197</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="8">
         <v>0.628949</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="8">
         <v>0.628949</v>
       </c>
       <c r="F90" s="9">
         <v>0.560486850272</v>
       </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -4473,27 +4473,27 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="6">
+      <c r="A91" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="7">
         <v>0.733981800135224</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="8">
         <v>0.339496882</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="8">
         <v>0.581713</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="8">
         <v>0.581713</v>
       </c>
       <c r="F91" s="9">
         <v>0.305503456622</v>
       </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -4513,27 +4513,27 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" s="6">
+      <c r="A92" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="7">
         <v>0.721908635893775</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="8">
         <v>0.505828248</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="8">
         <v>0.677276</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="8">
         <v>0.677276</v>
       </c>
       <c r="F92" s="9">
         <v>0.503554912629</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -4553,27 +4553,27 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" s="6">
+      <c r="A93" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="7">
         <v>0.815100425928978</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="8">
         <v>0.450274644</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="8">
         <v>0.655626</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="8">
         <v>0.655626</v>
       </c>
       <c r="F93" s="9">
         <v>0.791421743968</v>
       </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -4593,27 +4593,27 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="6">
+      <c r="A94" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="7">
         <v>0.74963261486876</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="8">
         <v>0.438018774</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="8">
         <v>0.60207</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="8">
         <v>0.60207</v>
       </c>
       <c r="F94" s="9">
         <v>0.510024419734</v>
       </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -4633,27 +4633,27 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="6">
+      <c r="A95" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="7">
         <v>0.650201672416267</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="8">
         <v>0.372881418</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="8">
         <v>0.629983</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="8">
         <v>0.629983</v>
       </c>
       <c r="F95" s="9">
         <v>0.574995829304</v>
       </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -4673,27 +4673,27 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="6">
+      <c r="A96" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="7">
         <v>0.793347844495673</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="8">
         <v>0.447870621</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="8">
         <v>0.670558</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="8">
         <v>0.670558</v>
       </c>
       <c r="F96" s="9">
         <v>0.361644935048</v>
       </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -4714,26 +4714,26 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" s="6">
+        <v>100</v>
+      </c>
+      <c r="B97" s="7">
         <v>0.784399414539431</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="8">
         <v>0.464845715</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="8">
         <v>0.671511</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="8">
         <v>0.671511</v>
       </c>
       <c r="F97" s="9">
         <v>0.443425319649</v>
       </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -4753,27 +4753,27 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" s="6">
+      <c r="A98" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="7">
         <v>0.710815417142687</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="8">
         <v>0.272240906</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="8">
         <v>0.568871</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="8">
         <v>0.568871</v>
       </c>
       <c r="F98" s="9">
         <v>0.632370377563</v>
       </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -4793,27 +4793,27 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99" s="6">
+      <c r="A99" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="7">
         <v>0.0703863737563233</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="8">
         <v>0.055006989</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="8">
         <v>0.057844</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="8">
         <v>0.057844</v>
       </c>
       <c r="F99" s="9">
         <v>0.0517704163767</v>
       </c>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -4833,27 +4833,27 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" s="6">
+      <c r="A100" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="7">
         <v>0.482247827649189</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="8">
         <v>0.251692622</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="8">
         <v>0.484444</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="8">
         <v>0.484444</v>
       </c>
       <c r="F100" s="9">
         <v>-0.0777236893728</v>
       </c>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -4873,27 +4873,27 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101" s="6">
+      <c r="A101" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="7">
         <v>0.484330450086803</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="8">
         <v>0.232764127</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="8">
         <v>0.464645</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="8">
         <v>0.464645</v>
       </c>
       <c r="F101" s="9">
         <v>0.21620157488</v>
       </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -4913,27 +4913,27 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" s="6">
+      <c r="A102" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="7">
         <v>0.195438652674649</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="8">
         <v>0.149620301</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="8">
         <v>0.170123</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="8">
         <v>0.170123</v>
       </c>
       <c r="F102" s="9">
         <v>0.177667388228</v>
       </c>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -4953,27 +4953,27 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="6">
+      <c r="A103" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="7">
         <v>0.772728121427561</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="8">
         <v>0.39190756</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="8">
         <v>0.624261</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="8">
         <v>0.624261</v>
       </c>
       <c r="F103" s="9">
         <v>0.735184131011</v>
       </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -4993,27 +4993,27 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" s="6">
+      <c r="A104" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="7">
         <v>0.809443428831837</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="8">
         <v>0.419648087</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="8">
         <v>0.649899</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="8">
         <v>0.649899</v>
       </c>
       <c r="F104" s="9">
         <v>0.794202723938</v>
       </c>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -5033,27 +5033,27 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="6">
+      <c r="A105" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="7">
         <v>0.795837917392029</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="8">
         <v>0.491194083</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="8">
         <v>0.705548</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="8">
         <v>0.705548</v>
       </c>
       <c r="F105" s="9">
         <v>0.805525027211</v>
       </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -5073,27 +5073,27 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106" s="6">
+      <c r="A106" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="7">
         <v>0.794870288745225</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="8">
         <v>0.433946247</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="8">
         <v>0.598439</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="8">
         <v>0.598439</v>
       </c>
       <c r="F106" s="9">
         <v>0.47900534363</v>
       </c>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -5113,27 +5113,27 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107" s="6">
+      <c r="A107" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="7">
         <v>0.542782177288096</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="8">
         <v>0.394005967</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="8">
         <v>0.516877</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="8">
         <v>0.516877</v>
       </c>
       <c r="F107" s="9">
         <v>0.423560789939</v>
       </c>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -5153,27 +5153,27 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" s="6">
+      <c r="A108" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="7">
         <v>0.233647116771713</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="8">
         <v>0.101779193</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="8">
         <v>0.249356</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="8">
         <v>0.249356</v>
       </c>
       <c r="F108" s="9">
         <v>0.131767430104</v>
       </c>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -5193,27 +5193,27 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109" s="6">
+      <c r="A109" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="7">
         <v>0.7390093626038</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="8">
         <v>0.411062088</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="8">
         <v>0.682835</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="8">
         <v>0.682835</v>
       </c>
       <c r="F109" s="9">
         <v>0.532862040086</v>
       </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -5233,27 +5233,27 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" s="6">
+      <c r="A110" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="7">
         <v>0.744999222790109</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="8">
         <v>0.385065466</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="8">
         <v>0.593877</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="8">
         <v>0.593877</v>
       </c>
       <c r="F110" s="9">
         <v>0.506543612339</v>
       </c>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -5273,27 +5273,27 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B111" s="6">
+      <c r="A111" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="7">
         <v>0.747567139626579</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="8">
         <v>0.333426906</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="8">
         <v>0.503174</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="8">
         <v>0.503174</v>
       </c>
       <c r="F111" s="9">
         <v>0.384298208066</v>
       </c>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -5313,27 +5313,27 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B112" s="6">
+      <c r="A112" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="7">
         <v>0.757644867537768</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="8">
         <v>0.344698313</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="8">
         <v>0.635538</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="8">
         <v>0.635538</v>
       </c>
       <c r="F112" s="9">
         <v>0.532515455512</v>
       </c>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -5353,27 +5353,27 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B113" s="6">
+      <c r="A113" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="7">
         <v>0.787743357183383</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="8">
         <v>0.413918448</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="8">
         <v>0.683441</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="8">
         <v>0.683441</v>
       </c>
       <c r="F113" s="9">
         <v>0.45909970839</v>
       </c>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -5393,27 +5393,27 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" s="6">
+      <c r="A114" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="7">
         <v>0.222601518207634</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="8">
         <v>0.107113218</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="8">
         <v>0.158553</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="8">
         <v>0.158553</v>
       </c>
       <c r="F114" s="9">
         <v>0.164097487621</v>
       </c>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -5433,27 +5433,27 @@
       <c r="Z114" s="1"/>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B115" s="6">
+      <c r="A115" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="7">
         <v>0.182131340465497</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="8">
         <v>0.183761621</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="8">
         <v>0.257353</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="8">
         <v>0.257353</v>
       </c>
       <c r="F115" s="9">
         <v>-0.116570431213</v>
       </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -5473,27 +5473,27 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B116" s="6">
+      <c r="A116" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="7">
         <v>0.659598029521058</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="8">
         <v>0.307086263</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="8">
         <v>0.590635</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="8">
         <v>0.590635</v>
       </c>
       <c r="F116" s="9">
         <v>0.557074045213</v>
       </c>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -5513,27 +5513,27 @@
       <c r="Z116" s="1"/>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B117" s="6">
+      <c r="A117" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="7">
         <v>0.576590424469822</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="8">
         <v>0.308471352</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="8">
         <v>0.533125</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="8">
         <v>0.533125</v>
       </c>
       <c r="F117" s="9">
         <v>0.314877951948</v>
       </c>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -5553,27 +5553,27 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B118" s="6">
+      <c r="A118" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="7">
         <v>0.707342299326405</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="8">
         <v>0.374032445</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="8">
         <v>0.463759</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="8">
         <v>0.463759</v>
       </c>
       <c r="F118" s="9">
         <v>0.493807150972</v>
       </c>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -5593,27 +5593,27 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119">
-      <c r="A119" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B119" s="6">
+      <c r="A119" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="7">
         <v>0.77163114869629</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="8">
         <v>0.395581234</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="8">
         <v>0.660529</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="8">
         <v>0.660529</v>
       </c>
       <c r="F119" s="9">
         <v>0.703570503018</v>
       </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -5633,27 +5633,27 @@
       <c r="Z119" s="1"/>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120" s="6">
+      <c r="A120" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="7">
         <v>0.738779562626099</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="8">
         <v>0.400539113</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" s="8">
         <v>0.674387</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="8">
         <v>0.674387</v>
       </c>
       <c r="F120" s="9">
         <v>0.556006752215</v>
       </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -5673,27 +5673,27 @@
       <c r="Z120" s="1"/>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121" s="6">
+      <c r="A121" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="7">
         <v>0.647573327766092</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="8">
         <v>0.347283863</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="8">
         <v>0.509413</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="8">
         <v>0.509413</v>
       </c>
       <c r="F121" s="9">
         <v>0.397796506945</v>
       </c>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -5713,27 +5713,27 @@
       <c r="Z121" s="1"/>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122" s="6">
+      <c r="A122" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="7">
         <v>0.523707032055217</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="8">
         <v>0.319381143</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="8">
         <v>0.541455</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="8">
         <v>0.541455</v>
       </c>
       <c r="F122" s="9">
         <v>0.280247136715</v>
       </c>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -5753,27 +5753,27 @@
       <c r="Z122" s="1"/>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B123" s="6">
+      <c r="A123" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="7">
         <v>0.69848377593841</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="8">
         <v>0.358539371</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="8">
         <v>0.650192</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="8">
         <v>0.650192</v>
       </c>
       <c r="F123" s="9">
         <v>0.544051069811</v>
       </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -5793,27 +5793,27 @@
       <c r="Z123" s="1"/>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B124" s="6">
+      <c r="A124" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="7">
         <v>0.398621084831347</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="8">
         <v>0.262868044</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" s="8">
         <v>0.42842</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="8">
         <v>0.42842</v>
       </c>
       <c r="F124" s="9">
         <v>0.296961625091</v>
       </c>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -5833,27 +5833,27 @@
       <c r="Z124" s="1"/>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B125" s="6">
+      <c r="A125" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="7">
         <v>0.711926847525441</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="8">
         <v>0.323038877</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" s="8">
         <v>0.56918</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="8">
         <v>0.56918</v>
       </c>
       <c r="F125" s="9">
         <v>0.350937869755</v>
       </c>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -5873,27 +5873,27 @@
       <c r="Z125" s="1"/>
     </row>
     <row r="126">
-      <c r="A126" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B126" s="6">
+      <c r="A126" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="7">
         <v>0.798825572846995</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="8">
         <v>0.396530313</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="8">
         <v>0.541157</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="8">
         <v>0.541157</v>
       </c>
       <c r="F126" s="9">
         <v>0.500417283707</v>
       </c>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -5913,27 +5913,27 @@
       <c r="Z126" s="1"/>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B127" s="6">
+      <c r="A127" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="7">
         <v>0.851375941482193</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="8">
         <v>0.571666943</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127" s="8">
         <v>0.767994</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="8">
         <v>0.767994</v>
       </c>
       <c r="F127" s="9">
         <v>0.624876265539</v>
       </c>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -5953,27 +5953,27 @@
       <c r="Z127" s="1"/>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B128" s="6">
+      <c r="A128" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="7">
         <v>0.734312545914496</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="8">
         <v>0.350834797</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D128" s="8">
         <v>0.636877</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="8">
         <v>0.636877</v>
       </c>
       <c r="F128" s="9">
         <v>0.502826783215</v>
       </c>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -5993,27 +5993,27 @@
       <c r="Z128" s="1"/>
     </row>
     <row r="129">
-      <c r="A129" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B129" s="6">
+      <c r="A129" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="7">
         <v>0.629939611598105</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="8">
         <v>0.311149689</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D129" s="8">
         <v>0.558386</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="8">
         <v>0.558386</v>
       </c>
       <c r="F129" s="9">
         <v>0.28086887861</v>
       </c>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -6033,27 +6033,27 @@
       <c r="Z129" s="1"/>
     </row>
     <row r="130">
-      <c r="A130" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B130" s="6">
+      <c r="A130" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="7">
         <v>0.660485654956033</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="8">
         <v>0.513105033</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="8">
         <v>0.631851</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="8">
         <v>0.631851</v>
       </c>
       <c r="F130" s="9">
         <v>0.471718041627</v>
       </c>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -6073,27 +6073,27 @@
       <c r="Z130" s="1"/>
     </row>
     <row r="131">
-      <c r="A131" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B131" s="6">
+      <c r="A131" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="7">
         <v>0.794021609469042</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="8">
         <v>0.530067902</v>
       </c>
-      <c r="D131" s="7">
+      <c r="D131" s="8">
         <v>0.72453</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="8">
         <v>0.72453</v>
       </c>
       <c r="F131" s="9">
         <v>0.615645030756</v>
       </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -6113,27 +6113,27 @@
       <c r="Z131" s="1"/>
     </row>
     <row r="132">
-      <c r="A132" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B132" s="6">
+      <c r="A132" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="7">
         <v>0.517828128256378</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="8">
         <v>0.363126061</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="8">
         <v>0.449342</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="8">
         <v>0.449342</v>
       </c>
       <c r="F132" s="9">
         <v>0.44519005101</v>
       </c>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -6153,27 +6153,27 @@
       <c r="Z132" s="1"/>
     </row>
     <row r="133">
-      <c r="A133" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B133" s="6">
+      <c r="A133" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="7">
         <v>0.828265905639516</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="8">
         <v>0.578259297</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="8">
         <v>0.753644</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="8">
         <v>0.753644</v>
       </c>
       <c r="F133" s="9">
         <v>0.73091369057</v>
       </c>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -6193,25 +6193,27 @@
       <c r="Z133" s="1"/>
     </row>
     <row r="134">
-      <c r="A134" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B134" s="6">
+      <c r="A134" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="7">
         <v>0.392618247602061</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="8">
         <v>0.244312863</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="8">
         <v>0.331411</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="8">
         <v>0.331411</v>
       </c>
-      <c r="F134" s="8"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+      <c r="F134" s="9">
+        <v>0.345991626735209</v>
+      </c>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -6231,25 +6233,27 @@
       <c r="Z134" s="1"/>
     </row>
     <row r="135">
-      <c r="A135" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B135" s="6">
+      <c r="A135" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="7">
         <v>0.639542488440107</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="8">
         <v>0.453684783</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="8">
         <v>0.57175</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="8">
         <v>0.57175</v>
       </c>
-      <c r="F135" s="8"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
+      <c r="F135" s="9">
+        <v>0.58483738861396</v>
+      </c>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -6269,25 +6273,27 @@
       <c r="Z135" s="1"/>
     </row>
     <row r="136">
-      <c r="A136" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B136" s="6">
+      <c r="A136" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="7">
         <v>0.562878355912709</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="8">
         <v>0.386175426</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="8">
         <v>0.499753</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="8">
         <v>0.499753</v>
       </c>
-      <c r="F136" s="8"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
+      <c r="F136" s="9">
+        <v>0.489900842985836</v>
+      </c>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -6307,25 +6313,27 @@
       <c r="Z136" s="1"/>
     </row>
     <row r="137">
-      <c r="A137" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B137" s="6">
+      <c r="A137" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="7">
         <v>0.641340311740347</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="8">
         <v>0.549540285</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="8">
         <v>0.625687</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="8">
         <v>0.625687</v>
       </c>
-      <c r="F137" s="8"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
+      <c r="F137" s="9">
+        <v>0.60380846387231</v>
+      </c>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -6345,25 +6353,27 @@
       <c r="Z137" s="1"/>
     </row>
     <row r="138">
-      <c r="A138" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B138" s="6">
+      <c r="A138" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="7">
         <v>0.765609658057644</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="8">
         <v>0.592775013</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="8">
         <v>0.695134</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="8">
         <v>0.695134</v>
       </c>
-      <c r="F138" s="8"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
+      <c r="F138" s="9">
+        <v>0.702983229536555</v>
+      </c>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -6383,25 +6393,27 @@
       <c r="Z138" s="1"/>
     </row>
     <row r="139">
-      <c r="A139" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B139" s="6">
+      <c r="A139" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="7">
         <v>0.743987047819717</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="8">
         <v>0.496077692</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="8">
         <v>0.672201</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="8">
         <v>0.672201</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
+      <c r="F139" s="9">
+        <v>0.687184117043678</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -6421,25 +6433,27 @@
       <c r="Z139" s="1"/>
     </row>
     <row r="140">
-      <c r="A140" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B140" s="6">
+      <c r="A140" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="7">
         <v>0.622868160424321</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="8">
         <v>0.406780447</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="8">
         <v>0.547478</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="8">
         <v>0.547478</v>
       </c>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
+      <c r="F140" s="9">
+        <v>0.558299438622864</v>
+      </c>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -6459,27 +6473,27 @@
       <c r="Z140" s="1"/>
     </row>
     <row r="141">
-      <c r="A141" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B141" s="6">
+      <c r="A141" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="7">
         <v>0.705207875262186</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="8">
         <v>0.506694507</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="8">
         <v>0.639089</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="8">
         <v>0.639089</v>
       </c>
       <c r="F141" s="9">
         <v>0.49810785449</v>
       </c>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -6499,27 +6513,27 @@
       <c r="Z141" s="1"/>
     </row>
     <row r="142">
-      <c r="A142" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B142" s="6">
+      <c r="A142" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="7">
         <v>0.502696651552427</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="8">
         <v>0.397695384</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="8">
         <v>0.460147</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="8">
         <v>0.460147</v>
       </c>
       <c r="F142" s="9">
         <v>0.417150883871</v>
       </c>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -6539,27 +6553,27 @@
       <c r="Z142" s="1"/>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B143" s="6">
+      <c r="A143" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="7">
         <v>0.749535840368997</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="8">
         <v>0.515059384</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143" s="8">
         <v>0.686507</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="8">
         <v>0.686507</v>
       </c>
       <c r="F143" s="9">
         <v>0.504040330069</v>
       </c>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -6579,27 +6593,27 @@
       <c r="Z143" s="1"/>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B144" s="6">
+      <c r="A144" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="7">
         <v>0.702530627928509</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="8">
         <v>0.457958167</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144" s="8">
         <v>0.628483</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="8">
         <v>0.628483</v>
       </c>
       <c r="F144" s="9">
         <v>0.526720165027</v>
       </c>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -6619,27 +6633,27 @@
       <c r="Z144" s="1"/>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B145" s="6">
+      <c r="A145" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="7">
         <v>0.566475208863178</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="8">
         <v>0.358503379</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="8">
         <v>0.513633</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="8">
         <v>0.513633</v>
       </c>
       <c r="F145" s="9">
         <v>0.391752430035</v>
       </c>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -6659,27 +6673,27 @@
       <c r="Z145" s="1"/>
     </row>
     <row r="146">
-      <c r="A146" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B146" s="6">
+      <c r="A146" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="7">
         <v>0.295969024961821</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="8">
         <v>0.23377816</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146" s="8">
         <v>0.264591</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="8">
         <v>0.264591</v>
       </c>
       <c r="F146" s="9">
         <v>0.229849927504</v>
       </c>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -6699,27 +6713,27 @@
       <c r="Z146" s="1"/>
     </row>
     <row r="147">
-      <c r="A147" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B147" s="6">
+      <c r="A147" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="7">
         <v>0.638987858195939</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="8">
         <v>0.391858169</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147" s="8">
         <v>0.579646</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="8">
         <v>0.579646</v>
       </c>
       <c r="F147" s="9">
         <v>0.404410058147</v>
       </c>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -6739,27 +6753,27 @@
       <c r="Z147" s="1"/>
     </row>
     <row r="148">
-      <c r="A148" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B148" s="6">
+      <c r="A148" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="7">
         <v>0.83721514918895</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="8">
         <v>0.560394684</v>
       </c>
-      <c r="D148" s="7">
+      <c r="D148" s="8">
         <v>0.774798</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="8">
         <v>0.774798</v>
       </c>
       <c r="F148" s="9">
         <v>0.618104823176</v>
       </c>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -6779,27 +6793,27 @@
       <c r="Z148" s="1"/>
     </row>
     <row r="149">
-      <c r="A149" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B149" s="6">
+      <c r="A149" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="7">
         <v>0.734662111520399</v>
       </c>
-      <c r="C149" s="7">
+      <c r="C149" s="8">
         <v>0.496861597</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D149" s="8">
         <v>0.697047</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="8">
         <v>0.697047</v>
       </c>
       <c r="F149" s="9">
         <v>0.561979866672</v>
       </c>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -6819,27 +6833,27 @@
       <c r="Z149" s="1"/>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B150" s="6">
+      <c r="A150" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="7">
         <v>0.763059236637546</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="8">
         <v>0.517848044</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="8">
         <v>0.65176</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="8">
         <v>0.65176</v>
       </c>
       <c r="F150" s="9">
         <v>0.647271156264</v>
       </c>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -6859,27 +6873,27 @@
       <c r="Z150" s="1"/>
     </row>
     <row r="151">
-      <c r="A151" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B151" s="6">
+      <c r="A151" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="7">
         <v>0.485085182214769</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151" s="8">
         <v>0.350090184</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151" s="8">
         <v>0.453147</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="8">
         <v>0.453147</v>
       </c>
       <c r="F151" s="9">
         <v>0.338002311822</v>
       </c>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -6899,27 +6913,27 @@
       <c r="Z151" s="1"/>
     </row>
     <row r="152">
-      <c r="A152" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B152" s="6">
+      <c r="A152" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="7">
         <v>0.82280496082356</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="8">
         <v>0.716643654</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="8">
         <v>0.764301</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="8">
         <v>0.764301</v>
       </c>
       <c r="F152" s="9">
         <v>0.751717989537</v>
       </c>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -6939,27 +6953,27 @@
       <c r="Z152" s="1"/>
     </row>
     <row r="153">
-      <c r="A153" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B153" s="6">
+      <c r="A153" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="7">
         <v>0.657930762729032</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="8">
         <v>0.491853796</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D153" s="8">
         <v>0.584322</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="8">
         <v>0.584322</v>
       </c>
       <c r="F153" s="9">
         <v>0.575517762743</v>
       </c>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -6979,27 +6993,27 @@
       <c r="Z153" s="1"/>
     </row>
     <row r="154">
-      <c r="A154" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B154" s="6">
+      <c r="A154" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="7">
         <v>0.587070593845977</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="8">
         <v>0.454135179</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D154" s="8">
         <v>0.52919</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154" s="8">
         <v>0.52919</v>
       </c>
       <c r="F154" s="9">
         <v>0.509360487396</v>
       </c>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -7019,27 +7033,27 @@
       <c r="Z154" s="1"/>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B155" s="6">
+      <c r="A155" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="7">
         <v>0.290138757539876</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="8">
         <v>0.261421012</v>
       </c>
-      <c r="D155" s="7">
+      <c r="D155" s="8">
         <v>0.271342</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="8">
         <v>0.271342</v>
       </c>
       <c r="F155" s="9">
         <v>0.281358862334</v>
       </c>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -7059,27 +7073,27 @@
       <c r="Z155" s="1"/>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B156" s="6">
+      <c r="A156" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="7">
         <v>0.749853898813394</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="8">
         <v>0.542678394</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D156" s="8">
         <v>0.676317</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156" s="8">
         <v>0.676317</v>
       </c>
       <c r="F156" s="9">
         <v>0.519098578357</v>
       </c>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -7099,27 +7113,27 @@
       <c r="Z156" s="1"/>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B157" s="6">
+      <c r="A157" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="7">
         <v>0.802027302831826</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="8">
         <v>0.5312427</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D157" s="8">
         <v>0.726662</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157" s="8">
         <v>0.726662</v>
       </c>
       <c r="F157" s="9">
         <v>0.562355904212</v>
       </c>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -7139,27 +7153,27 @@
       <c r="Z157" s="1"/>
     </row>
     <row r="158">
-      <c r="A158" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B158" s="6">
+      <c r="A158" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="7">
         <v>0.800907208007951</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="8">
         <v>0.599321962</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D158" s="8">
         <v>0.727395</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158" s="8">
         <v>0.727395</v>
       </c>
       <c r="F158" s="9">
         <v>0.697983071982</v>
       </c>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -7179,27 +7193,27 @@
       <c r="Z158" s="1"/>
     </row>
     <row r="159">
-      <c r="A159" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B159" s="6">
+      <c r="A159" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="7">
         <v>0.76481160627214</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159" s="8">
         <v>0.530821128</v>
       </c>
-      <c r="D159" s="7">
+      <c r="D159" s="8">
         <v>0.696516</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="8">
         <v>0.696516</v>
       </c>
       <c r="F159" s="9">
         <v>0.533130664826</v>
       </c>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -7219,27 +7233,27 @@
       <c r="Z159" s="1"/>
     </row>
     <row r="160">
-      <c r="A160" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B160" s="6">
+      <c r="A160" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="7">
         <v>0.70779419918485</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160" s="8">
         <v>0.622199119</v>
       </c>
-      <c r="D160" s="7">
+      <c r="D160" s="8">
         <v>0.739066</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E160" s="8">
         <v>0.739066</v>
       </c>
       <c r="F160" s="9">
         <v>0.683463703225</v>
       </c>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -7259,27 +7273,27 @@
       <c r="Z160" s="1"/>
     </row>
     <row r="161">
-      <c r="A161" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B161" s="6">
+      <c r="A161" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" s="7">
         <v>0.80568311803272</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="8">
         <v>0.528163585</v>
       </c>
-      <c r="D161" s="7">
+      <c r="D161" s="8">
         <v>0.708316</v>
       </c>
-      <c r="E161" s="7">
+      <c r="E161" s="8">
         <v>0.708316</v>
       </c>
       <c r="F161" s="9">
         <v>0.679087404604</v>
       </c>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -7299,27 +7313,27 @@
       <c r="Z161" s="1"/>
     </row>
     <row r="162">
-      <c r="A162" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B162" s="6">
+      <c r="A162" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" s="7">
         <v>0.611610346270877</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="8">
         <v>0.448859437</v>
       </c>
-      <c r="D162" s="7">
+      <c r="D162" s="8">
         <v>0.549707</v>
       </c>
-      <c r="E162" s="7">
+      <c r="E162" s="8">
         <v>0.549707</v>
       </c>
       <c r="F162" s="9">
         <v>0.429302526515</v>
       </c>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -7339,27 +7353,27 @@
       <c r="Z162" s="1"/>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B163" s="6">
+      <c r="A163" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="7">
         <v>0.795896425377671</v>
       </c>
-      <c r="C163" s="7">
+      <c r="C163" s="8">
         <v>0.606006424</v>
       </c>
-      <c r="D163" s="7">
+      <c r="D163" s="8">
         <v>0.736249</v>
       </c>
-      <c r="E163" s="7">
+      <c r="E163" s="8">
         <v>0.736249</v>
       </c>
       <c r="F163" s="9">
         <v>0.69310430199</v>
       </c>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -7379,27 +7393,27 @@
       <c r="Z163" s="1"/>
     </row>
     <row r="164">
-      <c r="A164" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B164" s="6">
+      <c r="A164" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="7">
         <v>0.621271165194925</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="8">
         <v>0.437755193</v>
       </c>
-      <c r="D164" s="7">
+      <c r="D164" s="8">
         <v>0.549308</v>
       </c>
-      <c r="E164" s="7">
+      <c r="E164" s="8">
         <v>0.549308</v>
       </c>
       <c r="F164" s="9">
         <v>0.397156528293</v>
       </c>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -7419,27 +7433,27 @@
       <c r="Z164" s="1"/>
     </row>
     <row r="165">
-      <c r="A165" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B165" s="6">
+      <c r="A165" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="7">
         <v>0.777019399113901</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165" s="8">
         <v>0.532758453</v>
       </c>
-      <c r="D165" s="7">
+      <c r="D165" s="8">
         <v>0.697558</v>
       </c>
-      <c r="E165" s="7">
+      <c r="E165" s="8">
         <v>0.697558</v>
       </c>
       <c r="F165" s="9">
         <v>0.658177954094</v>
       </c>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -7459,27 +7473,27 @@
       <c r="Z165" s="1"/>
     </row>
     <row r="166">
-      <c r="A166" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B166" s="6">
+      <c r="A166" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="7">
         <v>0.702754514240858</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="8">
         <v>0.445908722</v>
       </c>
-      <c r="D166" s="7">
+      <c r="D166" s="8">
         <v>0.628343</v>
       </c>
-      <c r="E166" s="7">
+      <c r="E166" s="8">
         <v>0.628343</v>
       </c>
       <c r="F166" s="9">
         <v>0.528478678216</v>
       </c>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -7499,27 +7513,27 @@
       <c r="Z166" s="1"/>
     </row>
     <row r="167">
-      <c r="A167" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B167" s="6">
+      <c r="A167" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="7">
         <v>0.73055880376265</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="8">
         <v>0.462105753</v>
       </c>
-      <c r="D167" s="7">
+      <c r="D167" s="8">
         <v>0.655158</v>
       </c>
-      <c r="E167" s="7">
+      <c r="E167" s="8">
         <v>0.655158</v>
       </c>
       <c r="F167" s="9">
         <v>0.518412679891</v>
       </c>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -7539,27 +7553,27 @@
       <c r="Z167" s="1"/>
     </row>
     <row r="168">
-      <c r="A168" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B168" s="6">
+      <c r="A168" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="7">
         <v>0.801433719577557</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168" s="8">
         <v>0.591521039</v>
       </c>
-      <c r="D168" s="7">
+      <c r="D168" s="8">
         <v>0.728258</v>
       </c>
-      <c r="E168" s="7">
+      <c r="E168" s="8">
         <v>0.728258</v>
       </c>
       <c r="F168" s="9">
         <v>0.610748904466</v>
       </c>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -7579,27 +7593,27 @@
       <c r="Z168" s="1"/>
     </row>
     <row r="169">
-      <c r="A169" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B169" s="6">
+      <c r="A169" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="7">
         <v>0.654197025950735</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169" s="8">
         <v>0.505006245</v>
       </c>
-      <c r="D169" s="7">
+      <c r="D169" s="8">
         <v>0.589438</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E169" s="8">
         <v>0.589438</v>
       </c>
       <c r="F169" s="9">
         <v>0.39910156102</v>
       </c>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -7619,27 +7633,27 @@
       <c r="Z169" s="1"/>
     </row>
     <row r="170">
-      <c r="A170" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B170" s="6">
+      <c r="A170" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="7">
         <v>0.813614519244746</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="8">
         <v>0.645876433</v>
       </c>
-      <c r="D170" s="7">
+      <c r="D170" s="8">
         <v>0.760046</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E170" s="8">
         <v>0.760046</v>
       </c>
       <c r="F170" s="9">
         <v>0.652030119409</v>
       </c>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -7659,27 +7673,27 @@
       <c r="Z170" s="1"/>
     </row>
     <row r="171">
-      <c r="A171" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B171" s="6">
+      <c r="A171" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="7">
         <v>0.79388270816025</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="8">
         <v>0.637423343</v>
       </c>
-      <c r="D171" s="7">
+      <c r="D171" s="8">
         <v>0.754708</v>
       </c>
-      <c r="E171" s="7">
+      <c r="E171" s="8">
         <v>0.754708</v>
       </c>
       <c r="F171" s="9">
         <v>0.638312961461</v>
       </c>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -7699,27 +7713,27 @@
       <c r="Z171" s="1"/>
     </row>
     <row r="172">
-      <c r="A172" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B172" s="6">
+      <c r="A172" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="7">
         <v>0.77088032834712</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172" s="8">
         <v>0.618497434</v>
       </c>
-      <c r="D172" s="7">
+      <c r="D172" s="8">
         <v>0.724068</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E172" s="8">
         <v>0.724068</v>
       </c>
       <c r="F172" s="9">
         <v>0.639474647714</v>
       </c>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -7739,27 +7753,27 @@
       <c r="Z172" s="1"/>
     </row>
     <row r="173">
-      <c r="A173" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B173" s="6">
+      <c r="A173" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="7">
         <v>0.713077094737821</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173" s="8">
         <v>0.547437381</v>
       </c>
-      <c r="D173" s="7">
+      <c r="D173" s="8">
         <v>0.660035</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E173" s="8">
         <v>0.660035</v>
       </c>
       <c r="F173" s="9">
         <v>0.611577933351</v>
       </c>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -7779,27 +7793,27 @@
       <c r="Z173" s="1"/>
     </row>
     <row r="174">
-      <c r="A174" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B174" s="6">
+      <c r="A174" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="7">
         <v>0.569531478443777</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="8">
         <v>0.371266824</v>
       </c>
-      <c r="D174" s="7">
+      <c r="D174" s="8">
         <v>0.493776</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E174" s="8">
         <v>0.493776</v>
       </c>
       <c r="F174" s="9">
         <v>0.383146790594</v>
       </c>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="6"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -7819,27 +7833,27 @@
       <c r="Z174" s="1"/>
     </row>
     <row r="175">
-      <c r="A175" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B175" s="6">
+      <c r="A175" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="7">
         <v>0.793769132441971</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="8">
         <v>0.614011682</v>
       </c>
-      <c r="D175" s="7">
+      <c r="D175" s="8">
         <v>0.724846</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E175" s="8">
         <v>0.724846</v>
       </c>
       <c r="F175" s="9">
         <v>0.67899035739</v>
       </c>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -7859,27 +7873,27 @@
       <c r="Z175" s="1"/>
     </row>
     <row r="176">
-      <c r="A176" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B176" s="6">
+      <c r="A176" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="7">
         <v>0.794480256128248</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="8">
         <v>0.586504206</v>
       </c>
-      <c r="D176" s="7">
+      <c r="D176" s="8">
         <v>0.744228</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E176" s="8">
         <v>0.744228</v>
       </c>
       <c r="F176" s="9">
         <v>0.677673370833</v>
       </c>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -7899,27 +7913,27 @@
       <c r="Z176" s="1"/>
     </row>
     <row r="177">
-      <c r="A177" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B177" s="6">
+      <c r="A177" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="7">
         <v>0.562339088427534</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C177" s="8">
         <v>0.362990331</v>
       </c>
-      <c r="D177" s="7">
+      <c r="D177" s="8">
         <v>0.487583</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="8">
         <v>0.487583</v>
       </c>
       <c r="F177" s="9">
         <v>0.351477782017</v>
       </c>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -7939,27 +7953,27 @@
       <c r="Z177" s="1"/>
     </row>
     <row r="178">
-      <c r="A178" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B178" s="6">
+      <c r="A178" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="7">
         <v>0.547673566519748</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="8">
         <v>0.378437501</v>
       </c>
-      <c r="D178" s="7">
+      <c r="D178" s="8">
         <v>0.504205</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E178" s="8">
         <v>0.504205</v>
       </c>
       <c r="F178" s="9">
         <v>0.381755850375</v>
       </c>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="6"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -7979,27 +7993,27 @@
       <c r="Z178" s="1"/>
     </row>
     <row r="179">
-      <c r="A179" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B179" s="6">
+      <c r="A179" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="7">
         <v>0.569413803376291</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="8">
         <v>0.40413403</v>
       </c>
-      <c r="D179" s="7">
+      <c r="D179" s="8">
         <v>0.522633</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E179" s="8">
         <v>0.522633</v>
       </c>
       <c r="F179" s="9">
         <v>0.451442366104</v>
       </c>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -8019,27 +8033,27 @@
       <c r="Z179" s="1"/>
     </row>
     <row r="180">
-      <c r="A180" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B180" s="6">
+      <c r="A180" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="7">
         <v>0.82671424524499</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="8">
         <v>0.523576195</v>
       </c>
-      <c r="D180" s="7">
+      <c r="D180" s="8">
         <v>0.746495</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E180" s="8">
         <v>0.746495</v>
       </c>
       <c r="F180" s="9">
         <v>0.658852068688</v>
       </c>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
@@ -8059,27 +8073,27 @@
       <c r="Z180" s="1"/>
     </row>
     <row r="181">
-      <c r="A181" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B181" s="6">
+      <c r="A181" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="7">
         <v>0.727904286663115</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181" s="8">
         <v>0.634551809</v>
       </c>
-      <c r="D181" s="7">
+      <c r="D181" s="8">
         <v>0.680105</v>
       </c>
-      <c r="E181" s="7">
+      <c r="E181" s="8">
         <v>0.680105</v>
       </c>
       <c r="F181" s="9">
         <v>0.662646825749</v>
       </c>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -8099,27 +8113,27 @@
       <c r="Z181" s="1"/>
     </row>
     <row r="182">
-      <c r="A182" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B182" s="6">
+      <c r="A182" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="7">
         <v>0.266032903285311</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="8">
         <v>0.189808549</v>
       </c>
-      <c r="D182" s="7">
+      <c r="D182" s="8">
         <v>0.245735</v>
       </c>
-      <c r="E182" s="7">
+      <c r="E182" s="8">
         <v>0.245735</v>
       </c>
       <c r="F182" s="9">
         <v>-0.120762218137</v>
       </c>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -8139,27 +8153,27 @@
       <c r="Z182" s="1"/>
     </row>
     <row r="183">
-      <c r="A183" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B183" s="6">
+      <c r="A183" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="7">
         <v>0.761150802832566</v>
       </c>
-      <c r="C183" s="7">
+      <c r="C183" s="8">
         <v>0.500227811</v>
       </c>
-      <c r="D183" s="7">
+      <c r="D183" s="8">
         <v>0.703126</v>
       </c>
-      <c r="E183" s="7">
+      <c r="E183" s="8">
         <v>0.703126</v>
       </c>
       <c r="F183" s="9">
         <v>0.667428521008</v>
       </c>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="6"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -8179,27 +8193,27 @@
       <c r="Z183" s="1"/>
     </row>
     <row r="184">
-      <c r="A184" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B184" s="6">
+      <c r="A184" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="7">
         <v>0.324770634201989</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="8">
         <v>0.264295827</v>
       </c>
-      <c r="D184" s="7">
+      <c r="D184" s="8">
         <v>0.28665</v>
       </c>
-      <c r="E184" s="7">
+      <c r="E184" s="8">
         <v>0.28665</v>
       </c>
       <c r="F184" s="9">
         <v>0.290304644542</v>
       </c>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -8219,27 +8233,27 @@
       <c r="Z184" s="1"/>
     </row>
     <row r="185">
-      <c r="A185" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B185" s="6">
+      <c r="A185" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="7">
         <v>0.850875585290549</v>
       </c>
-      <c r="C185" s="7">
+      <c r="C185" s="8">
         <v>0.749626852</v>
       </c>
-      <c r="D185" s="7">
+      <c r="D185" s="8">
         <v>0.807486</v>
       </c>
-      <c r="E185" s="7">
+      <c r="E185" s="8">
         <v>0.807486</v>
       </c>
       <c r="F185" s="9">
         <v>0.760069788748</v>
       </c>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -8259,27 +8273,27 @@
       <c r="Z185" s="1"/>
     </row>
     <row r="186">
-      <c r="A186" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B186" s="6">
+      <c r="A186" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="7">
         <v>0.790324704393288</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="8">
         <v>0.569077289</v>
       </c>
-      <c r="D186" s="7">
+      <c r="D186" s="8">
         <v>0.696524</v>
       </c>
-      <c r="E186" s="7">
+      <c r="E186" s="8">
         <v>0.696524</v>
       </c>
       <c r="F186" s="9">
         <v>0.559709557786</v>
       </c>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
@@ -8299,27 +8313,27 @@
       <c r="Z186" s="1"/>
     </row>
     <row r="187">
-      <c r="A187" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B187" s="6">
+      <c r="A187" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="7">
         <v>0.801879766640587</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C187" s="8">
         <v>0.646465149</v>
       </c>
-      <c r="D187" s="7">
+      <c r="D187" s="8">
         <v>0.744372</v>
       </c>
-      <c r="E187" s="7">
+      <c r="E187" s="8">
         <v>0.744372</v>
       </c>
       <c r="F187" s="9">
         <v>0.646313842224</v>
       </c>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
@@ -8339,27 +8353,27 @@
       <c r="Z187" s="1"/>
     </row>
     <row r="188">
-      <c r="A188" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B188" s="6">
+      <c r="A188" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="7">
         <v>0.799146782558695</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188" s="8">
         <v>0.511663417</v>
       </c>
-      <c r="D188" s="7">
+      <c r="D188" s="8">
         <v>0.750471</v>
       </c>
-      <c r="E188" s="7">
+      <c r="E188" s="8">
         <v>0.750471</v>
       </c>
       <c r="F188" s="9">
         <v>0.586976100969</v>
       </c>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -8379,27 +8393,27 @@
       <c r="Z188" s="1"/>
     </row>
     <row r="189">
-      <c r="A189" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B189" s="6">
+      <c r="A189" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="7">
         <v>0.834369346500622</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C189" s="8">
         <v>0.646128047</v>
       </c>
-      <c r="D189" s="7">
+      <c r="D189" s="8">
         <v>0.765402</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E189" s="8">
         <v>0.765402</v>
       </c>
       <c r="F189" s="9">
         <v>0.721766831963</v>
       </c>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
@@ -8419,27 +8433,27 @@
       <c r="Z189" s="1"/>
     </row>
     <row r="190">
-      <c r="A190" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B190" s="6">
+      <c r="A190" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="7">
         <v>0.759716768511996</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="8">
         <v>0.553617422</v>
       </c>
-      <c r="D190" s="7">
+      <c r="D190" s="8">
         <v>0.701285</v>
       </c>
-      <c r="E190" s="7">
+      <c r="E190" s="8">
         <v>0.701285</v>
       </c>
       <c r="F190" s="9">
         <v>0.564049988456</v>
       </c>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -8459,27 +8473,27 @@
       <c r="Z190" s="1"/>
     </row>
     <row r="191">
-      <c r="A191" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B191" s="6">
+      <c r="A191" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="7">
         <v>0.807774605848142</v>
       </c>
-      <c r="C191" s="7">
+      <c r="C191" s="8">
         <v>0.610270226</v>
       </c>
-      <c r="D191" s="7">
+      <c r="D191" s="8">
         <v>0.732812</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E191" s="8">
         <v>0.732812</v>
       </c>
       <c r="F191" s="9">
         <v>0.664745896062</v>
       </c>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -8499,27 +8513,27 @@
       <c r="Z191" s="1"/>
     </row>
     <row r="192">
-      <c r="A192" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B192" s="6">
+      <c r="A192" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="7">
         <v>0.489642856728035</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C192" s="8">
         <v>0.326360122</v>
       </c>
-      <c r="D192" s="7">
+      <c r="D192" s="8">
         <v>0.446243</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E192" s="8">
         <v>0.446243</v>
       </c>
       <c r="F192" s="9">
         <v>0.390165487326</v>
       </c>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -8539,27 +8553,27 @@
       <c r="Z192" s="1"/>
     </row>
     <row r="193">
-      <c r="A193" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B193" s="6">
+      <c r="A193" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="7">
         <v>0.83018431240833</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C193" s="8">
         <v>0.57681976</v>
       </c>
-      <c r="D193" s="7">
+      <c r="D193" s="8">
         <v>0.752149</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E193" s="8">
         <v>0.752149</v>
       </c>
       <c r="F193" s="9">
         <v>0.652210035566</v>
       </c>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -8579,27 +8593,27 @@
       <c r="Z193" s="1"/>
     </row>
     <row r="194">
-      <c r="A194" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B194" s="6">
+      <c r="A194" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="7">
         <v>0.59779255923536</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="8">
         <v>0.444506043</v>
       </c>
-      <c r="D194" s="7">
+      <c r="D194" s="8">
         <v>0.566225</v>
       </c>
-      <c r="E194" s="7">
+      <c r="E194" s="8">
         <v>0.566225</v>
       </c>
       <c r="F194" s="9">
         <v>0.515653909987</v>
       </c>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -8619,27 +8633,27 @@
       <c r="Z194" s="1"/>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B195" s="6">
+      <c r="A195" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="7">
         <v>0.74488629329112</v>
       </c>
-      <c r="C195" s="7">
+      <c r="C195" s="8">
         <v>0.542619775</v>
       </c>
-      <c r="D195" s="7">
+      <c r="D195" s="8">
         <v>0.693167</v>
       </c>
-      <c r="E195" s="7">
+      <c r="E195" s="8">
         <v>0.693167</v>
       </c>
       <c r="F195" s="9">
         <v>0.560087466406</v>
       </c>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -8659,27 +8673,27 @@
       <c r="Z195" s="1"/>
     </row>
     <row r="196">
-      <c r="A196" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B196" s="6">
+      <c r="A196" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="7">
         <v>0.701550251666891</v>
       </c>
-      <c r="C196" s="7">
+      <c r="C196" s="8">
         <v>0.522285178</v>
       </c>
-      <c r="D196" s="7">
+      <c r="D196" s="8">
         <v>0.64944</v>
       </c>
-      <c r="E196" s="7">
+      <c r="E196" s="8">
         <v>0.64944</v>
       </c>
       <c r="F196" s="9">
         <v>0.437839415617</v>
       </c>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -8699,27 +8713,27 @@
       <c r="Z196" s="1"/>
     </row>
     <row r="197">
-      <c r="A197" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B197" s="6">
+      <c r="A197" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="7">
         <v>0.631475952133793</v>
       </c>
-      <c r="C197" s="7">
+      <c r="C197" s="8">
         <v>0.478914443</v>
       </c>
-      <c r="D197" s="7">
+      <c r="D197" s="8">
         <v>0.567854</v>
       </c>
-      <c r="E197" s="7">
+      <c r="E197" s="8">
         <v>0.567854</v>
       </c>
       <c r="F197" s="9">
         <v>0.409156864747</v>
       </c>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -8739,27 +8753,27 @@
       <c r="Z197" s="1"/>
     </row>
     <row r="198">
-      <c r="A198" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B198" s="6">
+      <c r="A198" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="7">
         <v>0.81235976698235</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="8">
         <v>0.5423768</v>
       </c>
-      <c r="D198" s="7">
+      <c r="D198" s="8">
         <v>0.728944</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E198" s="8">
         <v>0.728944</v>
       </c>
       <c r="F198" s="9">
         <v>0.578357790748</v>
       </c>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -8779,27 +8793,27 @@
       <c r="Z198" s="1"/>
     </row>
     <row r="199">
-      <c r="A199" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B199" s="6">
+      <c r="A199" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="7">
         <v>0.294516430504811</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199" s="8">
         <v>0.261715021</v>
       </c>
-      <c r="D199" s="7">
+      <c r="D199" s="8">
         <v>0.2632</v>
       </c>
-      <c r="E199" s="7">
+      <c r="E199" s="8">
         <v>0.2632</v>
       </c>
-      <c r="F199" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="6"/>
+      <c r="F199" s="9">
+        <v>0.279123256422776</v>
+      </c>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -8819,27 +8833,27 @@
       <c r="Z199" s="1"/>
     </row>
     <row r="200">
-      <c r="A200" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B200" s="6">
+      <c r="A200" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="7">
         <v>0.81559748310377</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="8">
         <v>0.566129851</v>
       </c>
-      <c r="D200" s="7">
+      <c r="D200" s="8">
         <v>0.727587</v>
       </c>
-      <c r="E200" s="7">
+      <c r="E200" s="8">
         <v>0.727587</v>
       </c>
       <c r="F200" s="9">
         <v>0.603163513544</v>
       </c>
-      <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="6"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -8859,27 +8873,27 @@
       <c r="Z200" s="1"/>
     </row>
     <row r="201">
-      <c r="A201" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B201" s="6">
+      <c r="A201" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="7">
         <v>0.725107487969549</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="8">
         <v>0.623115998</v>
       </c>
-      <c r="D201" s="7">
+      <c r="D201" s="8">
         <v>0.686421</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E201" s="8">
         <v>0.686421</v>
       </c>
       <c r="F201" s="9">
         <v>0.621437980107</v>
       </c>
-      <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
-      <c r="I201" s="6"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="7"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -8899,27 +8913,27 @@
       <c r="Z201" s="1"/>
     </row>
     <row r="202">
-      <c r="A202" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B202" s="6">
+      <c r="A202" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" s="7">
         <v>0.806231041442821</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="8">
         <v>0.51144799</v>
       </c>
-      <c r="D202" s="7">
+      <c r="D202" s="8">
         <v>0.712848</v>
       </c>
-      <c r="E202" s="7">
+      <c r="E202" s="8">
         <v>0.712848</v>
       </c>
       <c r="F202" s="9">
         <v>0.568736849074</v>
       </c>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+      <c r="I202" s="7"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -8939,27 +8953,27 @@
       <c r="Z202" s="1"/>
     </row>
     <row r="203">
-      <c r="A203" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B203" s="6">
+      <c r="A203" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" s="7">
         <v>0.752721713997299</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203" s="8">
         <v>0.573792116</v>
       </c>
-      <c r="D203" s="7">
+      <c r="D203" s="8">
         <v>0.689978</v>
       </c>
-      <c r="E203" s="7">
+      <c r="E203" s="8">
         <v>0.689978</v>
       </c>
       <c r="F203" s="9">
         <v>0.597975432421</v>
       </c>
-      <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
-      <c r="I203" s="6"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="7"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -8979,27 +8993,27 @@
       <c r="Z203" s="1"/>
     </row>
     <row r="204">
-      <c r="A204" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B204" s="6">
+      <c r="A204" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" s="7">
         <v>0.626524339584756</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204" s="8">
         <v>0.452077245</v>
       </c>
-      <c r="D204" s="7">
+      <c r="D204" s="8">
         <v>0.586535</v>
       </c>
-      <c r="E204" s="7">
+      <c r="E204" s="8">
         <v>0.586535</v>
       </c>
       <c r="F204" s="9">
         <v>0.287738971541</v>
       </c>
-      <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
-      <c r="I204" s="6"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="7"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
@@ -9019,27 +9033,27 @@
       <c r="Z204" s="1"/>
     </row>
     <row r="205">
-      <c r="A205" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B205" s="6">
+      <c r="A205" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" s="7">
         <v>0.74755606679736</v>
       </c>
-      <c r="C205" s="7">
+      <c r="C205" s="8">
         <v>0.528725326</v>
       </c>
-      <c r="D205" s="7">
+      <c r="D205" s="8">
         <v>0.692141</v>
       </c>
-      <c r="E205" s="7">
+      <c r="E205" s="8">
         <v>0.692141</v>
       </c>
       <c r="F205" s="9">
         <v>0.542278494974</v>
       </c>
-      <c r="G205" s="6"/>
-      <c r="H205" s="6"/>
-      <c r="I205" s="6"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="7"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
@@ -9059,27 +9073,27 @@
       <c r="Z205" s="1"/>
     </row>
     <row r="206">
-      <c r="A206" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B206" s="6">
+      <c r="A206" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" s="7">
         <v>0.703648099302833</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="8">
         <v>0.426419419</v>
       </c>
-      <c r="D206" s="7">
+      <c r="D206" s="8">
         <v>0.636544</v>
       </c>
-      <c r="E206" s="7">
+      <c r="E206" s="8">
         <v>0.636544</v>
       </c>
       <c r="F206" s="9">
         <v>0.508695038677</v>
       </c>
-      <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
-      <c r="I206" s="6"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="7"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -9099,27 +9113,27 @@
       <c r="Z206" s="1"/>
     </row>
     <row r="207">
-      <c r="A207" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B207" s="6">
+      <c r="A207" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" s="7">
         <v>0.8888356958337</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="8">
         <v>0.739752476</v>
       </c>
-      <c r="D207" s="7">
+      <c r="D207" s="8">
         <v>0.842148</v>
       </c>
-      <c r="E207" s="7">
+      <c r="E207" s="8">
         <v>0.842148</v>
       </c>
       <c r="F207" s="9">
         <v>0.797104471304</v>
       </c>
-      <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
-      <c r="I207" s="6"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="7"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -9139,27 +9153,27 @@
       <c r="Z207" s="1"/>
     </row>
     <row r="208">
-      <c r="A208" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B208" s="6">
+      <c r="A208" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="7">
         <v>0.686273354520877</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208" s="8">
         <v>0.542751187</v>
       </c>
-      <c r="D208" s="7">
+      <c r="D208" s="8">
         <v>0.650063</v>
       </c>
-      <c r="E208" s="7">
+      <c r="E208" s="8">
         <v>0.650063</v>
       </c>
       <c r="F208" s="9">
         <v>0.600329917859</v>
       </c>
-      <c r="G208" s="6"/>
-      <c r="H208" s="6"/>
-      <c r="I208" s="6"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="7"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -9179,27 +9193,27 @@
       <c r="Z208" s="1"/>
     </row>
     <row r="209">
-      <c r="A209" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B209" s="6">
+      <c r="A209" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="7">
         <v>0.753593147313273</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209" s="8">
         <v>0.530801868</v>
       </c>
-      <c r="D209" s="7">
+      <c r="D209" s="8">
         <v>0.667669</v>
       </c>
-      <c r="E209" s="7">
+      <c r="E209" s="8">
         <v>0.667669</v>
       </c>
       <c r="F209" s="9">
         <v>0.58483705901</v>
       </c>
-      <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
-      <c r="I209" s="6"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="7"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -9219,27 +9233,27 @@
       <c r="Z209" s="1"/>
     </row>
     <row r="210">
-      <c r="A210" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B210" s="6">
+      <c r="A210" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" s="7">
         <v>0.788021058122007</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="8">
         <v>0.639408847</v>
       </c>
-      <c r="D210" s="7">
+      <c r="D210" s="8">
         <v>0.750903</v>
       </c>
-      <c r="E210" s="7">
+      <c r="E210" s="8">
         <v>0.750903</v>
       </c>
       <c r="F210" s="9">
         <v>0.715474457525</v>
       </c>
-      <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
-      <c r="I210" s="6"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="7"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -9259,27 +9273,27 @@
       <c r="Z210" s="1"/>
     </row>
     <row r="211">
-      <c r="A211" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B211" s="6">
+      <c r="A211" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="7">
         <v>0.799870862654474</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C211" s="8">
         <v>0.63103373</v>
       </c>
-      <c r="D211" s="7">
+      <c r="D211" s="8">
         <v>0.745273</v>
       </c>
-      <c r="E211" s="7">
+      <c r="E211" s="8">
         <v>0.745273</v>
       </c>
       <c r="F211" s="9">
         <v>0.709494894714</v>
       </c>
-      <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
-      <c r="I211" s="6"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="7"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -9299,27 +9313,27 @@
       <c r="Z211" s="1"/>
     </row>
     <row r="212">
-      <c r="A212" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B212" s="6">
+      <c r="A212" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="7">
         <v>0.85232171895418</v>
       </c>
-      <c r="C212" s="7">
+      <c r="C212" s="8">
         <v>0.67333324</v>
       </c>
-      <c r="D212" s="7">
+      <c r="D212" s="8">
         <v>0.782315</v>
       </c>
-      <c r="E212" s="7">
+      <c r="E212" s="8">
         <v>0.782315</v>
       </c>
       <c r="F212" s="9">
         <v>0.745296664397</v>
       </c>
-      <c r="G212" s="6"/>
-      <c r="H212" s="6"/>
-      <c r="I212" s="6"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="7"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -9339,27 +9353,27 @@
       <c r="Z212" s="1"/>
     </row>
     <row r="213">
-      <c r="A213" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B213" s="6">
+      <c r="A213" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" s="7">
         <v>0.817696735937549</v>
       </c>
-      <c r="C213" s="7">
+      <c r="C213" s="8">
         <v>0.583311823</v>
       </c>
-      <c r="D213" s="7">
+      <c r="D213" s="8">
         <v>0.719628</v>
       </c>
-      <c r="E213" s="7">
+      <c r="E213" s="8">
         <v>0.719628</v>
       </c>
       <c r="F213" s="9">
         <v>0.679193556592</v>
       </c>
-      <c r="G213" s="6"/>
-      <c r="H213" s="6"/>
-      <c r="I213" s="6"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="7"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
@@ -9379,27 +9393,27 @@
       <c r="Z213" s="1"/>
     </row>
     <row r="214">
-      <c r="A214" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B214" s="6">
+      <c r="A214" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="7">
         <v>0.801997637207228</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="8">
         <v>0.628138978</v>
       </c>
-      <c r="D214" s="7">
+      <c r="D214" s="8">
         <v>0.751618</v>
       </c>
-      <c r="E214" s="7">
+      <c r="E214" s="8">
         <v>0.751618</v>
       </c>
-      <c r="F214" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G214" s="6"/>
-      <c r="H214" s="6"/>
-      <c r="I214" s="6"/>
+      <c r="F214" s="9">
+        <v>0.756128214066165</v>
+      </c>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="7"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -9419,27 +9433,27 @@
       <c r="Z214" s="1"/>
     </row>
     <row r="215">
-      <c r="A215" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B215" s="6">
+      <c r="A215" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="7">
         <v>0.333088602670649</v>
       </c>
-      <c r="C215" s="7">
+      <c r="C215" s="8">
         <v>0.284563134</v>
       </c>
-      <c r="D215" s="7">
+      <c r="D215" s="8">
         <v>0.30479</v>
       </c>
-      <c r="E215" s="7">
+      <c r="E215" s="8">
         <v>0.30479</v>
       </c>
       <c r="F215" s="9">
         <v>0.287776102144</v>
       </c>
-      <c r="G215" s="6"/>
-      <c r="H215" s="6"/>
-      <c r="I215" s="6"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="7"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -9459,27 +9473,27 @@
       <c r="Z215" s="1"/>
     </row>
     <row r="216">
-      <c r="A216" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B216" s="6">
+      <c r="A216" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" s="7">
         <v>0.71922573640559</v>
       </c>
-      <c r="C216" s="7">
+      <c r="C216" s="8">
         <v>0.575930037</v>
       </c>
-      <c r="D216" s="7">
+      <c r="D216" s="8">
         <v>0.646586</v>
       </c>
-      <c r="E216" s="7">
+      <c r="E216" s="8">
         <v>0.646586</v>
       </c>
       <c r="F216" s="9">
         <v>0.607728212453</v>
       </c>
-      <c r="G216" s="6"/>
-      <c r="H216" s="6"/>
-      <c r="I216" s="6"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="7"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -9499,27 +9513,27 @@
       <c r="Z216" s="1"/>
     </row>
     <row r="217">
-      <c r="A217" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B217" s="6">
+      <c r="A217" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="7">
         <v>0.730208513826777</v>
       </c>
-      <c r="C217" s="7">
+      <c r="C217" s="8">
         <v>0.611025555</v>
       </c>
-      <c r="D217" s="7">
+      <c r="D217" s="8">
         <v>0.702614</v>
       </c>
-      <c r="E217" s="7">
+      <c r="E217" s="8">
         <v>0.702614</v>
       </c>
       <c r="F217" s="9">
         <v>0.608738636718</v>
       </c>
-      <c r="G217" s="6"/>
-      <c r="H217" s="6"/>
-      <c r="I217" s="6"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="7"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -9539,27 +9553,27 @@
       <c r="Z217" s="1"/>
     </row>
     <row r="218">
-      <c r="A218" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B218" s="6">
+      <c r="A218" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" s="7">
         <v>0.734189760994616</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="8">
         <v>0.550874816</v>
       </c>
-      <c r="D218" s="7">
+      <c r="D218" s="8">
         <v>0.657614</v>
       </c>
-      <c r="E218" s="7">
+      <c r="E218" s="8">
         <v>0.657614</v>
       </c>
       <c r="F218" s="9">
         <v>0.617932145998</v>
       </c>
-      <c r="G218" s="6"/>
-      <c r="H218" s="6"/>
-      <c r="I218" s="6"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="7"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -9579,27 +9593,27 @@
       <c r="Z218" s="1"/>
     </row>
     <row r="219">
-      <c r="A219" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B219" s="6">
+      <c r="A219" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="7">
         <v>0.82492359090247</v>
       </c>
-      <c r="C219" s="7">
+      <c r="C219" s="8">
         <v>0.625895038</v>
       </c>
-      <c r="D219" s="7">
+      <c r="D219" s="8">
         <v>0.754282</v>
       </c>
-      <c r="E219" s="7">
+      <c r="E219" s="8">
         <v>0.754282</v>
       </c>
       <c r="F219" s="9">
         <v>-9.40586206169E-19</v>
       </c>
-      <c r="G219" s="6"/>
-      <c r="H219" s="6"/>
-      <c r="I219" s="6"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="7"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -9619,27 +9633,27 @@
       <c r="Z219" s="1"/>
     </row>
     <row r="220">
-      <c r="A220" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B220" s="6">
+      <c r="A220" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" s="7">
         <v>0.830963235445141</v>
       </c>
-      <c r="C220" s="7">
+      <c r="C220" s="8">
         <v>0.595183293</v>
       </c>
-      <c r="D220" s="7">
+      <c r="D220" s="8">
         <v>0.747722</v>
       </c>
-      <c r="E220" s="7">
+      <c r="E220" s="8">
         <v>0.747722</v>
       </c>
       <c r="F220" s="9">
         <v>0.670882067469</v>
       </c>
-      <c r="G220" s="6"/>
-      <c r="H220" s="6"/>
-      <c r="I220" s="6"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="7"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
@@ -9659,27 +9673,27 @@
       <c r="Z220" s="1"/>
     </row>
     <row r="221">
-      <c r="A221" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B221" s="6">
+      <c r="A221" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" s="7">
         <v>0.852696500875739</v>
       </c>
-      <c r="C221" s="7">
+      <c r="C221" s="8">
         <v>0.594505719</v>
       </c>
-      <c r="D221" s="7">
+      <c r="D221" s="8">
         <v>0.767141</v>
       </c>
-      <c r="E221" s="7">
+      <c r="E221" s="8">
         <v>0.767141</v>
       </c>
       <c r="F221" s="9">
         <v>0.738958258602</v>
       </c>
-      <c r="G221" s="6"/>
-      <c r="H221" s="6"/>
-      <c r="I221" s="6"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="7"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
@@ -9699,27 +9713,27 @@
       <c r="Z221" s="1"/>
     </row>
     <row r="222">
-      <c r="A222" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B222" s="6">
+      <c r="A222" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" s="7">
         <v>0.834580880368429</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C222" s="8">
         <v>0.6496616</v>
       </c>
-      <c r="D222" s="7">
+      <c r="D222" s="8">
         <v>0.771282</v>
       </c>
-      <c r="E222" s="7">
+      <c r="E222" s="8">
         <v>0.771282</v>
       </c>
       <c r="F222" s="9">
         <v>0.631626310223</v>
       </c>
-      <c r="G222" s="6"/>
-      <c r="H222" s="6"/>
-      <c r="I222" s="6"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="7"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -9739,27 +9753,27 @@
       <c r="Z222" s="1"/>
     </row>
     <row r="223">
-      <c r="A223" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B223" s="6">
+      <c r="A223" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" s="7">
         <v>0.775084371014168</v>
       </c>
-      <c r="C223" s="7">
+      <c r="C223" s="8">
         <v>0.517533727</v>
       </c>
-      <c r="D223" s="7">
+      <c r="D223" s="8">
         <v>0.703112</v>
       </c>
-      <c r="E223" s="7">
+      <c r="E223" s="8">
         <v>0.703112</v>
       </c>
       <c r="F223" s="9">
         <v>0.537047555616</v>
       </c>
-      <c r="G223" s="6"/>
-      <c r="H223" s="6"/>
-      <c r="I223" s="6"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
+      <c r="I223" s="7"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -9779,27 +9793,27 @@
       <c r="Z223" s="1"/>
     </row>
     <row r="224">
-      <c r="A224" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B224" s="6">
+      <c r="A224" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="7">
         <v>0.799188735893121</v>
       </c>
-      <c r="C224" s="7">
+      <c r="C224" s="8">
         <v>0.589411737</v>
       </c>
-      <c r="D224" s="7">
+      <c r="D224" s="8">
         <v>0.713796</v>
       </c>
-      <c r="E224" s="7">
+      <c r="E224" s="8">
         <v>0.713796</v>
       </c>
       <c r="F224" s="9">
         <v>0.609851458888</v>
       </c>
-      <c r="G224" s="6"/>
-      <c r="H224" s="6"/>
-      <c r="I224" s="6"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="7"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
@@ -9819,27 +9833,27 @@
       <c r="Z224" s="1"/>
     </row>
     <row r="225">
-      <c r="A225" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B225" s="6">
+      <c r="A225" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" s="7">
         <v>0.734166292232972</v>
       </c>
-      <c r="C225" s="7">
+      <c r="C225" s="8">
         <v>0.565020155</v>
       </c>
-      <c r="D225" s="7">
+      <c r="D225" s="8">
         <v>0.666937</v>
       </c>
-      <c r="E225" s="7">
+      <c r="E225" s="8">
         <v>0.666937</v>
       </c>
       <c r="F225" s="9">
         <v>0.594734264432</v>
       </c>
-      <c r="G225" s="6"/>
-      <c r="H225" s="6"/>
-      <c r="I225" s="6"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="7"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
@@ -9859,27 +9873,27 @@
       <c r="Z225" s="1"/>
     </row>
     <row r="226">
-      <c r="A226" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B226" s="6">
+      <c r="A226" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" s="7">
         <v>0.862078306278888</v>
       </c>
-      <c r="C226" s="7">
+      <c r="C226" s="8">
         <v>0.631055194</v>
       </c>
-      <c r="D226" s="7">
+      <c r="D226" s="8">
         <v>0.782118</v>
       </c>
-      <c r="E226" s="7">
+      <c r="E226" s="8">
         <v>0.782118</v>
       </c>
       <c r="F226" s="9">
         <v>0.700314318775</v>
       </c>
-      <c r="G226" s="6"/>
-      <c r="H226" s="6"/>
-      <c r="I226" s="6"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="7"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -9899,27 +9913,27 @@
       <c r="Z226" s="1"/>
     </row>
     <row r="227">
-      <c r="A227" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B227" s="6">
+      <c r="A227" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="7">
         <v>0.785936271013495</v>
       </c>
-      <c r="C227" s="7">
+      <c r="C227" s="8">
         <v>0.600245172</v>
       </c>
-      <c r="D227" s="7">
+      <c r="D227" s="8">
         <v>0.737473</v>
       </c>
-      <c r="E227" s="7">
+      <c r="E227" s="8">
         <v>0.737473</v>
       </c>
       <c r="F227" s="9">
         <v>0.686253864607</v>
       </c>
-      <c r="G227" s="6"/>
-      <c r="H227" s="6"/>
-      <c r="I227" s="6"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="7"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -9939,27 +9953,27 @@
       <c r="Z227" s="1"/>
     </row>
     <row r="228">
-      <c r="A228" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B228" s="6">
+      <c r="A228" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="7">
         <v>0.829255333579729</v>
       </c>
-      <c r="C228" s="7">
+      <c r="C228" s="8">
         <v>0.624767305</v>
       </c>
-      <c r="D228" s="7">
+      <c r="D228" s="8">
         <v>0.755386</v>
       </c>
-      <c r="E228" s="7">
+      <c r="E228" s="8">
         <v>0.755386</v>
       </c>
       <c r="F228" s="9">
         <v>0.727490632738</v>
       </c>
-      <c r="G228" s="6"/>
-      <c r="H228" s="6"/>
-      <c r="I228" s="6"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -9979,27 +9993,27 @@
       <c r="Z228" s="1"/>
     </row>
     <row r="229">
-      <c r="A229" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B229" s="6">
+      <c r="A229" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="7">
         <v>0.838878052216008</v>
       </c>
-      <c r="C229" s="7">
+      <c r="C229" s="8">
         <v>0.631854387</v>
       </c>
-      <c r="D229" s="7">
+      <c r="D229" s="8">
         <v>0.768903</v>
       </c>
-      <c r="E229" s="7">
+      <c r="E229" s="8">
         <v>0.768903</v>
       </c>
       <c r="F229" s="9">
         <v>0.681666760588</v>
       </c>
-      <c r="G229" s="6"/>
-      <c r="H229" s="6"/>
-      <c r="I229" s="6"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="7"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
@@ -10019,27 +10033,27 @@
       <c r="Z229" s="1"/>
     </row>
     <row r="230">
-      <c r="A230" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B230" s="6">
+      <c r="A230" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" s="7">
         <v>0.306350696232101</v>
       </c>
-      <c r="C230" s="7">
+      <c r="C230" s="8">
         <v>0.261835295</v>
       </c>
-      <c r="D230" s="7">
+      <c r="D230" s="8">
         <v>0.4437</v>
       </c>
-      <c r="E230" s="7">
+      <c r="E230" s="8">
         <v>0.4437</v>
       </c>
       <c r="F230" s="9">
         <v>0.229516315531</v>
       </c>
-      <c r="G230" s="6"/>
-      <c r="H230" s="6"/>
-      <c r="I230" s="6"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="7"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
@@ -10059,27 +10073,27 @@
       <c r="Z230" s="1"/>
     </row>
     <row r="231">
-      <c r="A231" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B231" s="6">
+      <c r="A231" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" s="7">
         <v>0.736360188701813</v>
       </c>
-      <c r="C231" s="7">
+      <c r="C231" s="8">
         <v>0.438737435</v>
       </c>
-      <c r="D231" s="7">
+      <c r="D231" s="8">
         <v>0.633319</v>
       </c>
-      <c r="E231" s="7">
+      <c r="E231" s="8">
         <v>0.633319</v>
       </c>
       <c r="F231" s="9">
         <v>0.54432163416</v>
       </c>
-      <c r="G231" s="6"/>
-      <c r="H231" s="6"/>
-      <c r="I231" s="6"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="7"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
@@ -10099,27 +10113,27 @@
       <c r="Z231" s="1"/>
     </row>
     <row r="232">
-      <c r="A232" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B232" s="6">
+      <c r="A232" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" s="7">
         <v>0.113998634627818</v>
       </c>
-      <c r="C232" s="7">
+      <c r="C232" s="8">
         <v>0.066154835</v>
       </c>
-      <c r="D232" s="7">
+      <c r="D232" s="8">
         <v>0.0885828</v>
       </c>
-      <c r="E232" s="7">
+      <c r="E232" s="8">
         <v>0.0885828</v>
       </c>
       <c r="F232" s="9">
         <v>0.099950514488</v>
       </c>
-      <c r="G232" s="6"/>
-      <c r="H232" s="6"/>
-      <c r="I232" s="6"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="7"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
@@ -10139,27 +10153,27 @@
       <c r="Z232" s="1"/>
     </row>
     <row r="233">
-      <c r="A233" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B233" s="6">
+      <c r="A233" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" s="7">
         <v>0.753263682497499</v>
       </c>
-      <c r="C233" s="7">
+      <c r="C233" s="8">
         <v>0.521047308</v>
       </c>
-      <c r="D233" s="7">
+      <c r="D233" s="8">
         <v>0.6668</v>
       </c>
-      <c r="E233" s="7">
+      <c r="E233" s="8">
         <v>0.6668</v>
       </c>
       <c r="F233" s="9">
         <v>0.549339023043</v>
       </c>
-      <c r="G233" s="6"/>
-      <c r="H233" s="6"/>
-      <c r="I233" s="6"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="7"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
@@ -10179,27 +10193,27 @@
       <c r="Z233" s="1"/>
     </row>
     <row r="234">
-      <c r="A234" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B234" s="6">
+      <c r="A234" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" s="7">
         <v>0.622714041755083</v>
       </c>
-      <c r="C234" s="7">
+      <c r="C234" s="8">
         <v>0.369200017</v>
       </c>
-      <c r="D234" s="7">
+      <c r="D234" s="8">
         <v>0.554499</v>
       </c>
-      <c r="E234" s="7">
+      <c r="E234" s="8">
         <v>0.554499</v>
       </c>
       <c r="F234" s="9">
         <v>0.54695173593</v>
       </c>
-      <c r="G234" s="6"/>
-      <c r="H234" s="6"/>
-      <c r="I234" s="6"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="7"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
@@ -10219,27 +10233,27 @@
       <c r="Z234" s="1"/>
     </row>
     <row r="235">
-      <c r="A235" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B235" s="6">
+      <c r="A235" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" s="7">
         <v>0.709608538595719</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C235" s="8">
         <v>0.541445693</v>
       </c>
-      <c r="D235" s="7">
+      <c r="D235" s="8">
         <v>0.638853</v>
       </c>
-      <c r="E235" s="7">
+      <c r="E235" s="8">
         <v>0.638853</v>
       </c>
       <c r="F235" s="9">
         <v>0.59188722979</v>
       </c>
-      <c r="G235" s="6"/>
-      <c r="H235" s="6"/>
-      <c r="I235" s="6"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="7"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -10259,27 +10273,27 @@
       <c r="Z235" s="1"/>
     </row>
     <row r="236">
-      <c r="A236" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B236" s="6">
+      <c r="A236" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" s="7">
         <v>0.477756533147493</v>
       </c>
-      <c r="C236" s="7">
+      <c r="C236" s="8">
         <v>0.313180107</v>
       </c>
-      <c r="D236" s="7">
+      <c r="D236" s="8">
         <v>0.369609</v>
       </c>
-      <c r="E236" s="7">
+      <c r="E236" s="8">
         <v>0.369609</v>
       </c>
       <c r="F236" s="9">
         <v>0.391202207558</v>
       </c>
-      <c r="G236" s="6"/>
-      <c r="H236" s="6"/>
-      <c r="I236" s="6"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="7"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
@@ -10299,27 +10313,27 @@
       <c r="Z236" s="1"/>
     </row>
     <row r="237">
-      <c r="A237" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B237" s="6">
+      <c r="A237" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="7">
         <v>0.659667032434096</v>
       </c>
-      <c r="C237" s="7">
+      <c r="C237" s="8">
         <v>0.517677757</v>
       </c>
-      <c r="D237" s="7">
+      <c r="D237" s="8">
         <v>0.596008</v>
       </c>
-      <c r="E237" s="7">
+      <c r="E237" s="8">
         <v>0.596008</v>
       </c>
       <c r="F237" s="9">
         <v>0.472604270308</v>
       </c>
-      <c r="G237" s="6"/>
-      <c r="H237" s="6"/>
-      <c r="I237" s="6"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="7"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
@@ -10339,27 +10353,27 @@
       <c r="Z237" s="1"/>
     </row>
     <row r="238">
-      <c r="A238" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B238" s="6">
+      <c r="A238" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" s="7">
         <v>0.684344339148103</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="8">
         <v>0.455559025</v>
       </c>
-      <c r="D238" s="7">
+      <c r="D238" s="8">
         <v>0.632339</v>
       </c>
-      <c r="E238" s="7">
+      <c r="E238" s="8">
         <v>0.632339</v>
       </c>
       <c r="F238" s="9">
         <v>0.525156395856</v>
       </c>
-      <c r="G238" s="6"/>
-      <c r="H238" s="6"/>
-      <c r="I238" s="6"/>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7"/>
+      <c r="I238" s="7"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
@@ -10379,27 +10393,27 @@
       <c r="Z238" s="1"/>
     </row>
     <row r="239">
-      <c r="A239" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B239" s="6">
+      <c r="A239" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="7">
         <v>0.773867523354608</v>
       </c>
-      <c r="C239" s="7">
+      <c r="C239" s="8">
         <v>0.617049826</v>
       </c>
-      <c r="D239" s="7">
+      <c r="D239" s="8">
         <v>0.700393</v>
       </c>
-      <c r="E239" s="7">
+      <c r="E239" s="8">
         <v>0.700393</v>
       </c>
       <c r="F239" s="9">
         <v>0.708368530452</v>
       </c>
-      <c r="G239" s="6"/>
-      <c r="H239" s="6"/>
-      <c r="I239" s="6"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="7"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -10419,27 +10433,27 @@
       <c r="Z239" s="1"/>
     </row>
     <row r="240">
-      <c r="A240" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B240" s="6">
+      <c r="A240" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" s="7">
         <v>0.703860775465745</v>
       </c>
-      <c r="C240" s="7">
+      <c r="C240" s="8">
         <v>0.488882286</v>
       </c>
-      <c r="D240" s="7">
+      <c r="D240" s="8">
         <v>0.580928</v>
       </c>
-      <c r="E240" s="7">
+      <c r="E240" s="8">
         <v>0.580928</v>
       </c>
       <c r="F240" s="9">
         <v>0.342678334248</v>
       </c>
-      <c r="G240" s="6"/>
-      <c r="H240" s="6"/>
-      <c r="I240" s="6"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="7"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
@@ -10459,27 +10473,27 @@
       <c r="Z240" s="1"/>
     </row>
     <row r="241">
-      <c r="A241" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B241" s="6">
+      <c r="A241" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" s="7">
         <v>0.79248333925485</v>
       </c>
-      <c r="C241" s="7">
+      <c r="C241" s="8">
         <v>0.610856218</v>
       </c>
-      <c r="D241" s="7">
+      <c r="D241" s="8">
         <v>0.709552</v>
       </c>
-      <c r="E241" s="7">
+      <c r="E241" s="8">
         <v>0.709552</v>
       </c>
       <c r="F241" s="9">
         <v>0.662689815664</v>
       </c>
-      <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
-      <c r="I241" s="6"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="7"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -10499,27 +10513,27 @@
       <c r="Z241" s="1"/>
     </row>
     <row r="242">
-      <c r="A242" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B242" s="6">
+      <c r="A242" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" s="7">
         <v>0.502173371618455</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C242" s="8">
         <v>0.345654971</v>
       </c>
-      <c r="D242" s="7">
+      <c r="D242" s="8">
         <v>0.435111</v>
       </c>
-      <c r="E242" s="7">
+      <c r="E242" s="8">
         <v>0.435111</v>
       </c>
       <c r="F242" s="9">
         <v>0.392246017991</v>
       </c>
-      <c r="G242" s="6"/>
-      <c r="H242" s="6"/>
-      <c r="I242" s="6"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="7"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -10539,27 +10553,27 @@
       <c r="Z242" s="1"/>
     </row>
     <row r="243">
-      <c r="A243" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B243" s="6">
+      <c r="A243" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="7">
         <v>0.730845001006068</v>
       </c>
-      <c r="C243" s="7">
+      <c r="C243" s="8">
         <v>0.626773564</v>
       </c>
-      <c r="D243" s="7">
+      <c r="D243" s="8">
         <v>0.678887</v>
       </c>
-      <c r="E243" s="7">
+      <c r="E243" s="8">
         <v>0.678887</v>
       </c>
       <c r="F243" s="9">
         <v>0.660562766886</v>
       </c>
-      <c r="G243" s="6"/>
-      <c r="H243" s="6"/>
-      <c r="I243" s="6"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="7"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
@@ -10579,27 +10593,27 @@
       <c r="Z243" s="1"/>
     </row>
     <row r="244">
-      <c r="A244" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B244" s="6">
+      <c r="A244" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" s="7">
         <v>0.722727475108062</v>
       </c>
-      <c r="C244" s="7">
+      <c r="C244" s="8">
         <v>0.559313258</v>
       </c>
-      <c r="D244" s="7">
+      <c r="D244" s="8">
         <v>0.650064</v>
       </c>
-      <c r="E244" s="7">
+      <c r="E244" s="8">
         <v>0.650064</v>
       </c>
       <c r="F244" s="9">
         <v>0.596786301461</v>
       </c>
-      <c r="G244" s="6"/>
-      <c r="H244" s="6"/>
-      <c r="I244" s="6"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="7"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -10619,27 +10633,27 @@
       <c r="Z244" s="1"/>
     </row>
     <row r="245">
-      <c r="A245" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B245" s="6">
+      <c r="A245" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="7">
         <v>0.762447588037807</v>
       </c>
-      <c r="C245" s="7">
+      <c r="C245" s="8">
         <v>0.536664524</v>
       </c>
-      <c r="D245" s="7">
+      <c r="D245" s="8">
         <v>0.65409</v>
       </c>
-      <c r="E245" s="7">
+      <c r="E245" s="8">
         <v>0.65409</v>
       </c>
       <c r="F245" s="9">
         <v>0.603744457054</v>
       </c>
-      <c r="G245" s="6"/>
-      <c r="H245" s="6"/>
-      <c r="I245" s="6"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="7"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -10688,14 +10702,14 @@
     </row>
     <row r="247">
       <c r="A247" s="1"/>
-      <c r="B247" s="6"/>
+      <c r="B247" s="7"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
-      <c r="G247" s="6"/>
-      <c r="H247" s="6"/>
-      <c r="I247" s="6"/>
+      <c r="G247" s="7"/>
+      <c r="H247" s="7"/>
+      <c r="I247" s="7"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
@@ -10717,10 +10731,10 @@
     <row r="248">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
-      <c r="C248" s="8"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
@@ -10745,13 +10759,13 @@
     <row r="249">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
-      <c r="C249" s="8"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="9"/>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
       <c r="G249" s="1"/>
-      <c r="H249" s="6"/>
-      <c r="I249" s="6"/>
+      <c r="H249" s="7"/>
+      <c r="I249" s="7"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
